--- a/data-raw/Caitlin Kristen Reconciliation.xlsx
+++ b/data-raw/Caitlin Kristen Reconciliation.xlsx
@@ -3402,6 +3402,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 109" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3730,10 +3781,10 @@
   <dimension ref="A1:Z955"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J902" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="A918" sqref="A918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3741,7 +3792,7 @@
     <col min="1" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3835,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3882,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3929,7 +3980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3976,7 +4027,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4023,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4070,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4117,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4164,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -4211,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -4258,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -4305,7 +4356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -4352,7 +4403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -4399,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -4446,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -4493,7 +4544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -4540,7 +4591,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -4587,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -4634,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -4681,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="1">
         <v>13</v>
       </c>
@@ -4728,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -4775,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="1">
         <v>14</v>
       </c>
@@ -4822,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -4869,7 +4920,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="1">
         <v>15</v>
       </c>
@@ -4916,7 +4967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -4963,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="1">
         <v>16</v>
       </c>
@@ -5010,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="1">
         <v>17</v>
       </c>
@@ -5057,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="1">
         <v>17</v>
       </c>
@@ -5104,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -5151,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="1">
         <v>18</v>
       </c>
@@ -5198,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="1">
         <v>19</v>
       </c>
@@ -5245,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="1">
         <v>19</v>
       </c>
@@ -5292,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="1">
         <v>20</v>
       </c>
@@ -5339,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="1">
         <v>20</v>
       </c>
@@ -5386,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="A36" s="1">
         <v>21</v>
       </c>
@@ -5433,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="1">
         <v>21</v>
       </c>
@@ -5480,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="1">
         <v>23</v>
       </c>
@@ -5527,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="1">
         <v>23</v>
       </c>
@@ -5574,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="1">
         <v>24</v>
       </c>
@@ -5621,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="1">
         <v>24</v>
       </c>
@@ -5668,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -5715,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -5762,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="1">
         <v>26</v>
       </c>
@@ -5809,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="1">
         <v>26</v>
       </c>
@@ -5856,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="1">
         <v>27</v>
       </c>
@@ -5903,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="1">
         <v>27</v>
       </c>
@@ -5950,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="1">
         <v>28</v>
       </c>
@@ -5997,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="15" customHeight="1">
       <c r="A49" s="1">
         <v>28</v>
       </c>
@@ -6044,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="15" customHeight="1">
       <c r="A50" s="1">
         <v>34</v>
       </c>
@@ -6091,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="15" customHeight="1">
       <c r="A51" s="1">
         <v>34</v>
       </c>
@@ -6138,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="15" customHeight="1">
       <c r="A52" s="1">
         <v>35</v>
       </c>
@@ -6185,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="15" customHeight="1">
       <c r="A53" s="1">
         <v>35</v>
       </c>
@@ -6232,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="15" customHeight="1">
       <c r="A54" s="1">
         <v>36</v>
       </c>
@@ -6279,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="1">
         <v>36</v>
       </c>
@@ -6326,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="15" customHeight="1">
       <c r="A56" s="1">
         <v>38</v>
       </c>
@@ -6373,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="15" customHeight="1">
       <c r="A57" s="1">
         <v>38</v>
       </c>
@@ -6420,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="15" customHeight="1">
       <c r="A58" s="1">
         <v>39</v>
       </c>
@@ -6467,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="15" customHeight="1">
       <c r="A59" s="1">
         <v>39</v>
       </c>
@@ -6514,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="15" customHeight="1">
       <c r="A60" s="1">
         <v>41</v>
       </c>
@@ -6561,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" ht="15" customHeight="1">
       <c r="A61" s="1">
         <v>41</v>
       </c>
@@ -6608,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" ht="15" customHeight="1">
       <c r="A62" s="1">
         <v>45</v>
       </c>
@@ -6655,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="15" customHeight="1">
       <c r="A63" s="1">
         <v>45</v>
       </c>
@@ -6702,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" ht="15" customHeight="1">
       <c r="A64" s="1">
         <v>46</v>
       </c>
@@ -6749,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="15" customHeight="1">
       <c r="A65" s="1">
         <v>46</v>
       </c>
@@ -6796,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" ht="15" customHeight="1">
       <c r="A66" s="1">
         <v>48</v>
       </c>
@@ -6843,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="1">
         <v>48</v>
       </c>
@@ -6890,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="15" customHeight="1">
       <c r="A68" s="1">
         <v>51</v>
       </c>
@@ -6937,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="15" customHeight="1">
       <c r="A69" s="1">
         <v>51</v>
       </c>
@@ -6984,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="15" customHeight="1">
       <c r="A70" s="1">
         <v>58</v>
       </c>
@@ -7031,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="15" customHeight="1">
       <c r="A71" s="1">
         <v>58</v>
       </c>
@@ -7078,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="15" customHeight="1">
       <c r="A72" s="1">
         <v>59</v>
       </c>
@@ -7125,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="15" customHeight="1">
       <c r="A73" s="1">
         <v>59</v>
       </c>
@@ -7172,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" ht="15" customHeight="1">
       <c r="A74" s="1">
         <v>60</v>
       </c>
@@ -7219,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" ht="15" customHeight="1">
       <c r="A75" s="1">
         <v>60</v>
       </c>
@@ -7266,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="15" customHeight="1">
       <c r="A76" s="1">
         <v>61</v>
       </c>
@@ -7313,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="15" customHeight="1">
       <c r="A77" s="1">
         <v>61</v>
       </c>
@@ -7360,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="15" customHeight="1">
       <c r="A78" s="1">
         <v>63</v>
       </c>
@@ -7407,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="15" customHeight="1">
       <c r="A79" s="1">
         <v>63</v>
       </c>
@@ -7454,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" ht="15" customHeight="1">
       <c r="A80" s="1">
         <v>64</v>
       </c>
@@ -7501,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" ht="15" customHeight="1">
       <c r="A81" s="1">
         <v>64</v>
       </c>
@@ -7548,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" ht="15" customHeight="1">
       <c r="A82" s="1">
         <v>65</v>
       </c>
@@ -7595,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" ht="15" customHeight="1">
       <c r="A83" s="1">
         <v>65</v>
       </c>
@@ -7642,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" ht="15" customHeight="1">
       <c r="A84" s="1">
         <v>69</v>
       </c>
@@ -7689,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" ht="15" customHeight="1">
       <c r="A85" s="1">
         <v>69</v>
       </c>
@@ -7736,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" ht="15" customHeight="1">
       <c r="A86" s="1">
         <v>71</v>
       </c>
@@ -7783,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" ht="15" customHeight="1">
       <c r="A87" s="1">
         <v>71</v>
       </c>
@@ -7830,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" ht="15" customHeight="1">
       <c r="A88" s="1">
         <v>72</v>
       </c>
@@ -7877,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" ht="15" customHeight="1">
       <c r="A89" s="1">
         <v>72</v>
       </c>
@@ -7924,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" ht="15" customHeight="1">
       <c r="A90" s="1">
         <v>73</v>
       </c>
@@ -7971,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" ht="15" customHeight="1">
       <c r="A91" s="1">
         <v>73</v>
       </c>
@@ -8018,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" ht="15" customHeight="1">
       <c r="A92" s="1">
         <v>74</v>
       </c>
@@ -8065,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" ht="15" customHeight="1">
       <c r="A93" s="1">
         <v>74</v>
       </c>
@@ -8112,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" ht="15" customHeight="1">
       <c r="A94" s="1">
         <v>75</v>
       </c>
@@ -8159,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" ht="15" customHeight="1">
       <c r="A95" s="1">
         <v>75</v>
       </c>
@@ -8206,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="15" customHeight="1">
       <c r="A96" s="1">
         <v>77</v>
       </c>
@@ -8253,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="15" customHeight="1">
       <c r="A97" s="1">
         <v>77</v>
       </c>
@@ -8300,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" ht="15" customHeight="1">
       <c r="A98" s="1">
         <v>79</v>
       </c>
@@ -8347,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" ht="15" customHeight="1">
       <c r="A99" s="1">
         <v>79</v>
       </c>
@@ -8394,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" ht="15" customHeight="1">
       <c r="A100" s="1">
         <v>80</v>
       </c>
@@ -8441,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" ht="15" customHeight="1">
       <c r="A101" s="1">
         <v>80</v>
       </c>
@@ -8488,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" ht="15" customHeight="1">
       <c r="A102" s="1">
         <v>81</v>
       </c>
@@ -8535,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" ht="15" customHeight="1">
       <c r="A103" s="1">
         <v>81</v>
       </c>
@@ -8582,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" ht="15" customHeight="1">
       <c r="A104" s="1">
         <v>82</v>
       </c>
@@ -8629,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" ht="15" customHeight="1">
       <c r="A105" s="1">
         <v>82</v>
       </c>
@@ -8676,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" ht="15" customHeight="1">
       <c r="A106" s="1">
         <v>83</v>
       </c>
@@ -8723,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" ht="15" customHeight="1">
       <c r="A107" s="1">
         <v>83</v>
       </c>
@@ -8770,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" ht="15" customHeight="1">
       <c r="A108" s="1">
         <v>86</v>
       </c>
@@ -8817,7 +8868,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" ht="15" customHeight="1">
       <c r="A109" s="1">
         <v>86</v>
       </c>
@@ -8864,7 +8915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" ht="15" customHeight="1">
       <c r="A110" s="1">
         <v>87</v>
       </c>
@@ -8911,7 +8962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" ht="15" customHeight="1">
       <c r="A111" s="1">
         <v>87</v>
       </c>
@@ -8958,7 +9009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" ht="15" customHeight="1">
       <c r="A112" s="1">
         <v>88</v>
       </c>
@@ -9005,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" ht="15" customHeight="1">
       <c r="A113" s="1">
         <v>88</v>
       </c>
@@ -9052,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" ht="15" customHeight="1">
       <c r="A114" s="1">
         <v>89</v>
       </c>
@@ -9099,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" ht="15" customHeight="1">
       <c r="A115" s="1">
         <v>89</v>
       </c>
@@ -9146,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" ht="15" customHeight="1">
       <c r="A116" s="1">
         <v>90</v>
       </c>
@@ -9193,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" ht="15" customHeight="1">
       <c r="A117" s="1">
         <v>90</v>
       </c>
@@ -9240,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" ht="15" customHeight="1">
       <c r="A118" s="1">
         <v>93</v>
       </c>
@@ -9287,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" ht="15" customHeight="1">
       <c r="A119" s="1">
         <v>93</v>
       </c>
@@ -9334,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" ht="15" customHeight="1">
       <c r="A120" s="1">
         <v>94</v>
       </c>
@@ -9381,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" ht="15" customHeight="1">
       <c r="A121" s="1">
         <v>94</v>
       </c>
@@ -9428,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" ht="15" customHeight="1">
       <c r="A122" s="1">
         <v>98</v>
       </c>
@@ -9475,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" ht="15" customHeight="1">
       <c r="A123" s="1">
         <v>98</v>
       </c>
@@ -9522,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" ht="15" customHeight="1">
       <c r="A124" s="1">
         <v>99</v>
       </c>
@@ -9569,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" ht="15" customHeight="1">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -9616,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" ht="15" customHeight="1">
       <c r="A126" s="1">
         <v>100</v>
       </c>
@@ -9663,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" ht="15" customHeight="1">
       <c r="A127" s="1">
         <v>100</v>
       </c>
@@ -9710,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" ht="15" customHeight="1">
       <c r="A128" s="1">
         <v>101</v>
       </c>
@@ -9757,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" ht="15" customHeight="1">
       <c r="A129" s="1">
         <v>101</v>
       </c>
@@ -9804,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" ht="15" customHeight="1">
       <c r="A130" s="1">
         <v>102</v>
       </c>
@@ -9851,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" ht="15" customHeight="1">
       <c r="A131" s="1">
         <v>102</v>
       </c>
@@ -9898,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" ht="15" customHeight="1">
       <c r="A132" s="1">
         <v>103</v>
       </c>
@@ -9945,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" ht="15" customHeight="1">
       <c r="A133" s="1">
         <v>103</v>
       </c>
@@ -9992,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" ht="15" customHeight="1">
       <c r="A134" s="1">
         <v>106</v>
       </c>
@@ -10039,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" ht="15" customHeight="1">
       <c r="A135" s="1">
         <v>106</v>
       </c>
@@ -10086,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" ht="15" customHeight="1">
       <c r="A136" s="1">
         <v>108</v>
       </c>
@@ -10133,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" ht="15" customHeight="1">
       <c r="A137" s="1">
         <v>108</v>
       </c>
@@ -10180,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" ht="15" customHeight="1">
       <c r="A138" s="1">
         <v>109</v>
       </c>
@@ -10227,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" ht="15" customHeight="1">
       <c r="A139" s="1">
         <v>109</v>
       </c>
@@ -10274,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" ht="15" customHeight="1">
       <c r="A140" s="1">
         <v>110</v>
       </c>
@@ -10321,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" ht="15" customHeight="1">
       <c r="A141" s="1">
         <v>110</v>
       </c>
@@ -10368,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" ht="15" customHeight="1">
       <c r="A142" s="1">
         <v>112</v>
       </c>
@@ -10415,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" ht="15" customHeight="1">
       <c r="A143" s="1">
         <v>112</v>
       </c>
@@ -10462,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" ht="15" customHeight="1">
       <c r="A144" s="1">
         <v>113</v>
       </c>
@@ -10509,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" ht="15" customHeight="1">
       <c r="A145" s="1">
         <v>113</v>
       </c>
@@ -10556,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" ht="15" customHeight="1">
       <c r="A146" s="1">
         <v>115</v>
       </c>
@@ -10603,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" ht="15" customHeight="1">
       <c r="A147" s="1">
         <v>115</v>
       </c>
@@ -10650,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" ht="15" customHeight="1">
       <c r="A148" s="1">
         <v>116</v>
       </c>
@@ -10697,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" ht="15" customHeight="1">
       <c r="A149" s="1">
         <v>116</v>
       </c>
@@ -10744,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" ht="15" customHeight="1">
       <c r="A150" s="1">
         <v>117</v>
       </c>
@@ -10791,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" ht="15" customHeight="1">
       <c r="A151" s="1">
         <v>117</v>
       </c>
@@ -10838,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" ht="15" customHeight="1">
       <c r="A152" s="1">
         <v>120</v>
       </c>
@@ -10885,7 +10936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" ht="15" customHeight="1">
       <c r="A153" s="1">
         <v>120</v>
       </c>
@@ -10932,7 +10983,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" ht="15" customHeight="1">
       <c r="A154" s="1">
         <v>121</v>
       </c>
@@ -10979,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" ht="15" customHeight="1">
       <c r="A155" s="1">
         <v>121</v>
       </c>
@@ -11026,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" ht="15" customHeight="1">
       <c r="A156" s="1">
         <v>122</v>
       </c>
@@ -11073,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" ht="15" customHeight="1">
       <c r="A157" s="1">
         <v>122</v>
       </c>
@@ -11120,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" ht="15" customHeight="1">
       <c r="A158" s="1">
         <v>123</v>
       </c>
@@ -11167,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" ht="15" customHeight="1">
       <c r="A159" s="1">
         <v>123</v>
       </c>
@@ -11214,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" ht="15" customHeight="1">
       <c r="A160" s="1">
         <v>124</v>
       </c>
@@ -11261,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" ht="15" customHeight="1">
       <c r="A161" s="1">
         <v>124</v>
       </c>
@@ -11308,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" ht="15" customHeight="1">
       <c r="A162" s="1">
         <v>125</v>
       </c>
@@ -11355,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" ht="15" customHeight="1">
       <c r="A163" s="1">
         <v>125</v>
       </c>
@@ -11402,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" ht="15" customHeight="1">
       <c r="A164" s="1">
         <v>126</v>
       </c>
@@ -11449,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" ht="15" customHeight="1">
       <c r="A165" s="1">
         <v>126</v>
       </c>
@@ -11496,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" ht="15" customHeight="1">
       <c r="A166" s="1">
         <v>127</v>
       </c>
@@ -11543,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" ht="15" customHeight="1">
       <c r="A167" s="1">
         <v>127</v>
       </c>
@@ -11590,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" ht="15" customHeight="1">
       <c r="A168" s="1">
         <v>129</v>
       </c>
@@ -11637,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" ht="15" customHeight="1">
       <c r="A169" s="1">
         <v>129</v>
       </c>
@@ -11684,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" ht="15" customHeight="1">
       <c r="A170" s="1">
         <v>130</v>
       </c>
@@ -11731,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" ht="15" customHeight="1">
       <c r="A171" s="1">
         <v>130</v>
       </c>
@@ -11778,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" ht="15" customHeight="1">
       <c r="A172" s="1">
         <v>131</v>
       </c>
@@ -11825,7 +11876,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" ht="15" customHeight="1">
       <c r="A173" s="1">
         <v>131</v>
       </c>
@@ -11872,7 +11923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" ht="15" customHeight="1">
       <c r="A174" s="1">
         <v>132</v>
       </c>
@@ -11919,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" ht="15" customHeight="1">
       <c r="A175" s="1">
         <v>132</v>
       </c>
@@ -11966,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" ht="15" customHeight="1">
       <c r="A176" s="1">
         <v>133</v>
       </c>
@@ -12013,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" ht="15" customHeight="1">
       <c r="A177" s="1">
         <v>133</v>
       </c>
@@ -12060,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" ht="15" customHeight="1">
       <c r="A178" s="1">
         <v>134</v>
       </c>
@@ -12107,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" ht="15" customHeight="1">
       <c r="A179" s="1">
         <v>134</v>
       </c>
@@ -12154,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" ht="15" customHeight="1">
       <c r="A180" s="1">
         <v>135</v>
       </c>
@@ -12201,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" ht="15" customHeight="1">
       <c r="A181" s="1">
         <v>135</v>
       </c>
@@ -12248,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" ht="15" customHeight="1">
       <c r="A182" s="1">
         <v>136</v>
       </c>
@@ -12295,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" ht="15" customHeight="1">
       <c r="A183" s="1">
         <v>136</v>
       </c>
@@ -12342,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" ht="15" customHeight="1">
       <c r="A184" s="1">
         <v>137</v>
       </c>
@@ -12389,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" ht="15" customHeight="1">
       <c r="A185" s="1">
         <v>137</v>
       </c>
@@ -12436,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" ht="15" customHeight="1">
       <c r="A186" s="1">
         <v>138</v>
       </c>
@@ -12483,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" ht="15" customHeight="1">
       <c r="A187" s="1">
         <v>138</v>
       </c>
@@ -12530,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" ht="15" customHeight="1">
       <c r="A188" s="1">
         <v>140</v>
       </c>
@@ -12577,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" ht="15" customHeight="1">
       <c r="A189" s="1">
         <v>140</v>
       </c>
@@ -12624,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" ht="15" customHeight="1">
       <c r="A190" s="1">
         <v>141</v>
       </c>
@@ -12671,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" ht="15" customHeight="1">
       <c r="A191" s="1">
         <v>141</v>
       </c>
@@ -12718,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" ht="15" customHeight="1">
       <c r="A192" s="1">
         <v>142</v>
       </c>
@@ -12765,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" ht="15" customHeight="1">
       <c r="A193" s="1">
         <v>142</v>
       </c>
@@ -12812,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" ht="15" customHeight="1">
       <c r="A194" s="1">
         <v>143</v>
       </c>
@@ -12859,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" ht="15" customHeight="1">
       <c r="A195" s="1">
         <v>143</v>
       </c>
@@ -12906,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" ht="15" customHeight="1">
       <c r="A196" s="1">
         <v>144</v>
       </c>
@@ -12953,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" ht="15" customHeight="1">
       <c r="A197" s="1">
         <v>144</v>
       </c>
@@ -13000,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" ht="15" customHeight="1">
       <c r="A198" s="1">
         <v>145</v>
       </c>
@@ -13047,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" ht="15" customHeight="1">
       <c r="A199" s="1">
         <v>145</v>
       </c>
@@ -13094,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" ht="15" customHeight="1">
       <c r="A200" s="1">
         <v>146</v>
       </c>
@@ -13141,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" ht="15" customHeight="1">
       <c r="A201" s="1">
         <v>146</v>
       </c>
@@ -13188,7 +13239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" ht="15" customHeight="1">
       <c r="A202" s="1">
         <v>147</v>
       </c>
@@ -13235,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" ht="15" customHeight="1">
       <c r="A203" s="1">
         <v>147</v>
       </c>
@@ -13282,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" ht="15" customHeight="1">
       <c r="A204" s="1">
         <v>164</v>
       </c>
@@ -13329,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" ht="15" customHeight="1">
       <c r="A205" s="1">
         <v>164</v>
       </c>
@@ -13376,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" ht="15" customHeight="1">
       <c r="A206" s="1">
         <v>165</v>
       </c>
@@ -13423,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" ht="15" customHeight="1">
       <c r="A207" s="1">
         <v>165</v>
       </c>
@@ -13470,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" ht="15" customHeight="1">
       <c r="A208" s="1">
         <v>166</v>
       </c>
@@ -13517,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" ht="15" customHeight="1">
       <c r="A209" s="1">
         <v>166</v>
       </c>
@@ -13564,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" ht="15" customHeight="1">
       <c r="A210" s="1">
         <v>167</v>
       </c>
@@ -13611,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" ht="15" customHeight="1">
       <c r="A211" s="1">
         <v>167</v>
       </c>
@@ -13658,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" ht="15" customHeight="1">
       <c r="A212" s="1">
         <v>168</v>
       </c>
@@ -13705,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" ht="15" customHeight="1">
       <c r="A213" s="1">
         <v>168</v>
       </c>
@@ -13752,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" ht="15" customHeight="1">
       <c r="A214" s="1">
         <v>169</v>
       </c>
@@ -13799,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" ht="15" customHeight="1">
       <c r="A215" s="1">
         <v>169</v>
       </c>
@@ -13846,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" ht="15" customHeight="1">
       <c r="A216" s="1">
         <v>170</v>
       </c>
@@ -13893,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" ht="15" customHeight="1">
       <c r="A217" s="1">
         <v>170</v>
       </c>
@@ -13940,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" ht="15" customHeight="1">
       <c r="A218" s="1">
         <v>171</v>
       </c>
@@ -13987,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" ht="15" customHeight="1">
       <c r="A219" s="1">
         <v>171</v>
       </c>
@@ -14034,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" ht="15" customHeight="1">
       <c r="A220" s="1">
         <v>172</v>
       </c>
@@ -14081,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" ht="15" customHeight="1">
       <c r="A221" s="1">
         <v>172</v>
       </c>
@@ -14128,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" ht="15" customHeight="1">
       <c r="A222" s="1">
         <v>173</v>
       </c>
@@ -14175,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" ht="15" customHeight="1">
       <c r="A223" s="1">
         <v>173</v>
       </c>
@@ -14222,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" ht="15" customHeight="1">
       <c r="A224" s="1">
         <v>174</v>
       </c>
@@ -14269,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" ht="15" customHeight="1">
       <c r="A225" s="1">
         <v>174</v>
       </c>
@@ -14316,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" ht="15" customHeight="1">
       <c r="A226" s="1">
         <v>175</v>
       </c>
@@ -14363,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" ht="15" customHeight="1">
       <c r="A227" s="1">
         <v>175</v>
       </c>
@@ -14410,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" ht="15" customHeight="1">
       <c r="A228" s="1">
         <v>176</v>
       </c>
@@ -14457,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" ht="15" customHeight="1">
       <c r="A229" s="1">
         <v>176</v>
       </c>
@@ -14504,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" ht="15" customHeight="1">
       <c r="A230" s="1">
         <v>177</v>
       </c>
@@ -14551,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" ht="15" customHeight="1">
       <c r="A231" s="1">
         <v>177</v>
       </c>
@@ -14598,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" ht="15" customHeight="1">
       <c r="A232" s="1">
         <v>178</v>
       </c>
@@ -14645,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" ht="15" customHeight="1">
       <c r="A233" s="1">
         <v>178</v>
       </c>
@@ -14692,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" ht="15" customHeight="1">
       <c r="A234" s="1">
         <v>179</v>
       </c>
@@ -14739,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" ht="15" customHeight="1">
       <c r="A235" s="1">
         <v>179</v>
       </c>
@@ -14786,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" ht="15" customHeight="1">
       <c r="A236" s="1">
         <v>180</v>
       </c>
@@ -14833,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" ht="15" customHeight="1">
       <c r="A237" s="1">
         <v>180</v>
       </c>
@@ -14880,7 +14931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" ht="15" customHeight="1">
       <c r="A238" s="1">
         <v>181</v>
       </c>
@@ -14927,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" ht="15" customHeight="1">
       <c r="A239" s="1">
         <v>181</v>
       </c>
@@ -14974,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" ht="15" customHeight="1">
       <c r="A240" s="1">
         <v>182</v>
       </c>
@@ -15018,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" ht="15" customHeight="1">
       <c r="A241" s="1">
         <v>182</v>
       </c>
@@ -15062,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" ht="15" customHeight="1">
       <c r="A242" s="1">
         <v>183</v>
       </c>
@@ -15109,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" ht="15" customHeight="1">
       <c r="A243" s="1">
         <v>183</v>
       </c>
@@ -15156,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" ht="15" customHeight="1">
       <c r="A244" s="1">
         <v>184</v>
       </c>
@@ -15203,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" ht="15" customHeight="1">
       <c r="A245" s="1">
         <v>184</v>
       </c>
@@ -15250,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" ht="15" customHeight="1">
       <c r="A246" s="1">
         <v>186</v>
       </c>
@@ -15297,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" ht="15" customHeight="1">
       <c r="A247" s="1">
         <v>186</v>
       </c>
@@ -15344,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" ht="15" customHeight="1">
       <c r="A248" s="1">
         <v>189</v>
       </c>
@@ -15391,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" ht="15" customHeight="1">
       <c r="A249" s="1">
         <v>189</v>
       </c>
@@ -15438,7 +15489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" ht="15" customHeight="1">
       <c r="A250" s="1">
         <v>190</v>
       </c>
@@ -15485,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" ht="15" customHeight="1">
       <c r="A251" s="1">
         <v>190</v>
       </c>
@@ -15532,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" ht="15" customHeight="1">
       <c r="A252" s="1">
         <v>191</v>
       </c>
@@ -15579,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" ht="15" customHeight="1">
       <c r="A253" s="1">
         <v>191</v>
       </c>
@@ -15626,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" ht="15" customHeight="1">
       <c r="A254" s="1">
         <v>192</v>
       </c>
@@ -15673,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" ht="15" customHeight="1">
       <c r="A255" s="1">
         <v>192</v>
       </c>
@@ -15720,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" ht="15" customHeight="1">
       <c r="A256" s="1">
         <v>194</v>
       </c>
@@ -15767,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" ht="15" customHeight="1">
       <c r="A257" s="1">
         <v>194</v>
       </c>
@@ -15814,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" ht="15" customHeight="1">
       <c r="A258" s="1">
         <v>195</v>
       </c>
@@ -15861,7 +15912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" ht="15" customHeight="1">
       <c r="A259" s="1">
         <v>195</v>
       </c>
@@ -15908,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" ht="15" customHeight="1">
       <c r="A260" s="1">
         <v>196</v>
       </c>
@@ -15955,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" ht="15" customHeight="1">
       <c r="A261" s="1">
         <v>196</v>
       </c>
@@ -16002,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" ht="15" customHeight="1">
       <c r="A262" s="1">
         <v>199</v>
       </c>
@@ -16049,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" ht="15" customHeight="1">
       <c r="A263" s="1">
         <v>199</v>
       </c>
@@ -16096,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" ht="15" customHeight="1">
       <c r="A264" s="1">
         <v>200</v>
       </c>
@@ -16143,7 +16194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" ht="15" customHeight="1">
       <c r="A265" s="1">
         <v>200</v>
       </c>
@@ -16190,7 +16241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" ht="15" customHeight="1">
       <c r="A266" s="1">
         <v>201</v>
       </c>
@@ -16237,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" ht="15" customHeight="1">
       <c r="A267" s="1">
         <v>201</v>
       </c>
@@ -16284,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" ht="15" customHeight="1">
       <c r="A268" s="1">
         <v>202</v>
       </c>
@@ -16331,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" ht="15" customHeight="1">
       <c r="A269" s="1">
         <v>202</v>
       </c>
@@ -16378,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" ht="15" customHeight="1">
       <c r="A270" s="1">
         <v>203</v>
       </c>
@@ -16425,7 +16476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" ht="15" customHeight="1">
       <c r="A271" s="1">
         <v>203</v>
       </c>
@@ -16472,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" ht="15" customHeight="1">
       <c r="A272" s="1">
         <v>204</v>
       </c>
@@ -16519,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" ht="15" customHeight="1">
       <c r="A273" s="1">
         <v>204</v>
       </c>
@@ -16566,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" ht="15" customHeight="1">
       <c r="A274" s="1">
         <v>205</v>
       </c>
@@ -16613,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" ht="15" customHeight="1">
       <c r="A275" s="1">
         <v>205</v>
       </c>
@@ -16660,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" ht="15" customHeight="1">
       <c r="A276" s="1">
         <v>206</v>
       </c>
@@ -16707,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" ht="15" customHeight="1">
       <c r="A277" s="1">
         <v>206</v>
       </c>
@@ -16754,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" ht="15" customHeight="1">
       <c r="A278" s="1">
         <v>207</v>
       </c>
@@ -16801,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" ht="15" customHeight="1">
       <c r="A279" s="1">
         <v>207</v>
       </c>
@@ -16848,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" ht="15" customHeight="1">
       <c r="A280" s="1">
         <v>208</v>
       </c>
@@ -16895,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" ht="15" customHeight="1">
       <c r="A281" s="1">
         <v>208</v>
       </c>
@@ -16942,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" ht="15" customHeight="1">
       <c r="A282" s="1">
         <v>209</v>
       </c>
@@ -16989,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" ht="15" customHeight="1">
       <c r="A283" s="1">
         <v>209</v>
       </c>
@@ -17036,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" ht="15" customHeight="1">
       <c r="A284" s="1">
         <v>216</v>
       </c>
@@ -17083,7 +17134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" ht="15" customHeight="1">
       <c r="A285" s="1">
         <v>216</v>
       </c>
@@ -17130,7 +17181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" ht="15" customHeight="1">
       <c r="A286" s="1">
         <v>217</v>
       </c>
@@ -17177,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" ht="15" customHeight="1">
       <c r="A287" s="1">
         <v>217</v>
       </c>
@@ -17224,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" ht="15" customHeight="1">
       <c r="A288" s="1">
         <v>218</v>
       </c>
@@ -17271,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" ht="15" customHeight="1">
       <c r="A289" s="1">
         <v>218</v>
       </c>
@@ -17318,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" ht="15" customHeight="1">
       <c r="A290" s="1">
         <v>219</v>
       </c>
@@ -17365,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" ht="15" customHeight="1">
       <c r="A291" s="1">
         <v>219</v>
       </c>
@@ -17412,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" ht="15" customHeight="1">
       <c r="A292" s="1">
         <v>220</v>
       </c>
@@ -17459,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" ht="15" customHeight="1">
       <c r="A293" s="1">
         <v>220</v>
       </c>
@@ -17506,7 +17557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" ht="15" customHeight="1">
       <c r="A294" s="1">
         <v>221</v>
       </c>
@@ -17553,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" ht="15" customHeight="1">
       <c r="A295" s="1">
         <v>221</v>
       </c>
@@ -17600,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" ht="15" customHeight="1">
       <c r="A296" s="1">
         <v>222</v>
       </c>
@@ -17647,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" ht="15" customHeight="1">
       <c r="A297" s="1">
         <v>222</v>
       </c>
@@ -17694,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" ht="15" customHeight="1">
       <c r="A298" s="1">
         <v>223</v>
       </c>
@@ -17741,7 +17792,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" ht="15" customHeight="1">
       <c r="A299" s="1">
         <v>223</v>
       </c>
@@ -17788,7 +17839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" ht="15" customHeight="1">
       <c r="A300" s="1">
         <v>224</v>
       </c>
@@ -17835,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" ht="15" customHeight="1">
       <c r="A301" s="1">
         <v>224</v>
       </c>
@@ -17882,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" ht="15" customHeight="1">
       <c r="A302" s="1">
         <v>225</v>
       </c>
@@ -17929,7 +17980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" ht="15" customHeight="1">
       <c r="A303" s="1">
         <v>225</v>
       </c>
@@ -17976,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" ht="15" customHeight="1">
       <c r="A304" s="1">
         <v>230</v>
       </c>
@@ -18023,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" ht="15" customHeight="1">
       <c r="A305" s="1">
         <v>230</v>
       </c>
@@ -18070,7 +18121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" ht="15" customHeight="1">
       <c r="A306" s="1">
         <v>231</v>
       </c>
@@ -18117,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" ht="15" customHeight="1">
       <c r="A307" s="1">
         <v>231</v>
       </c>
@@ -18164,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" ht="15" customHeight="1">
       <c r="A308" s="1">
         <v>233</v>
       </c>
@@ -18211,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" ht="15" customHeight="1">
       <c r="A309" s="1">
         <v>233</v>
       </c>
@@ -18258,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" ht="15" customHeight="1">
       <c r="A310" s="1">
         <v>234</v>
       </c>
@@ -18305,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" ht="15" customHeight="1">
       <c r="A311" s="1">
         <v>234</v>
       </c>
@@ -18352,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" ht="15" customHeight="1">
       <c r="A312" s="1">
         <v>235</v>
       </c>
@@ -18399,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" ht="15" customHeight="1">
       <c r="A313" s="1">
         <v>235</v>
       </c>
@@ -18446,7 +18497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" ht="15" customHeight="1">
       <c r="A314" s="1">
         <v>236</v>
       </c>
@@ -18493,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" ht="15" customHeight="1">
       <c r="A315" s="1">
         <v>236</v>
       </c>
@@ -18540,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" ht="15" customHeight="1">
       <c r="A316" s="1">
         <v>237</v>
       </c>
@@ -18587,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" ht="15" customHeight="1">
       <c r="A317" s="1">
         <v>237</v>
       </c>
@@ -18634,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" ht="15" customHeight="1">
       <c r="A318" s="1">
         <v>238</v>
       </c>
@@ -18681,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" ht="15" customHeight="1">
       <c r="A319" s="1">
         <v>238</v>
       </c>
@@ -18728,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" ht="15" customHeight="1">
       <c r="A320" s="1">
         <v>239</v>
       </c>
@@ -18775,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" ht="15" customHeight="1">
       <c r="A321" s="1">
         <v>239</v>
       </c>
@@ -18822,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" ht="15" customHeight="1">
       <c r="A322" s="1">
         <v>240</v>
       </c>
@@ -18869,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" ht="15" customHeight="1">
       <c r="A323" s="1">
         <v>240</v>
       </c>
@@ -18916,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" ht="15" customHeight="1">
       <c r="A324" s="1">
         <v>241</v>
       </c>
@@ -18963,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" ht="15" customHeight="1">
       <c r="A325" s="1">
         <v>241</v>
       </c>
@@ -19010,7 +19061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" ht="15" customHeight="1">
       <c r="A326" s="1">
         <v>247</v>
       </c>
@@ -19057,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" ht="15" customHeight="1">
       <c r="A327" s="1">
         <v>247</v>
       </c>
@@ -19104,7 +19155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" ht="15" customHeight="1">
       <c r="A328" s="1">
         <v>248</v>
       </c>
@@ -19151,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" ht="15" customHeight="1">
       <c r="A329" s="1">
         <v>248</v>
       </c>
@@ -19198,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" ht="15" customHeight="1">
       <c r="A330" s="1">
         <v>249</v>
       </c>
@@ -19245,7 +19296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" ht="15" customHeight="1">
       <c r="A331" s="1">
         <v>249</v>
       </c>
@@ -19292,7 +19343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" ht="15" customHeight="1">
       <c r="A332" s="1">
         <v>251</v>
       </c>
@@ -19339,7 +19390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" ht="15" customHeight="1">
       <c r="A333" s="1">
         <v>251</v>
       </c>
@@ -19386,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" ht="15" customHeight="1">
       <c r="A334" s="1">
         <v>252</v>
       </c>
@@ -19433,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" ht="15" customHeight="1">
       <c r="A335" s="1">
         <v>252</v>
       </c>
@@ -19480,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" ht="15" customHeight="1">
       <c r="A336" s="1">
         <v>253</v>
       </c>
@@ -19527,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" ht="15" customHeight="1">
       <c r="A337" s="1">
         <v>253</v>
       </c>
@@ -19574,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" ht="15" customHeight="1">
       <c r="A338" s="1">
         <v>254</v>
       </c>
@@ -19621,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" ht="15" customHeight="1">
       <c r="A339" s="1">
         <v>254</v>
       </c>
@@ -19668,7 +19719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" ht="15" customHeight="1">
       <c r="A340" s="1">
         <v>255</v>
       </c>
@@ -19715,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" ht="15" customHeight="1">
       <c r="A341" s="1">
         <v>255</v>
       </c>
@@ -19762,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" ht="15" customHeight="1">
       <c r="A342" s="1">
         <v>256</v>
       </c>
@@ -19809,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" ht="15" customHeight="1">
       <c r="A343" s="1">
         <v>256</v>
       </c>
@@ -19856,7 +19907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" ht="15" customHeight="1">
       <c r="A344" s="1">
         <v>257</v>
       </c>
@@ -19903,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" ht="15" customHeight="1">
       <c r="A345" s="1">
         <v>257</v>
       </c>
@@ -19950,7 +20001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" ht="15" customHeight="1">
       <c r="A346" s="1">
         <v>258</v>
       </c>
@@ -19997,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" ht="15" customHeight="1">
       <c r="A347" s="1">
         <v>258</v>
       </c>
@@ -20044,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" ht="15" customHeight="1">
       <c r="A348" s="1">
         <v>259</v>
       </c>
@@ -20091,7 +20142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" ht="15" customHeight="1">
       <c r="A349" s="1">
         <v>259</v>
       </c>
@@ -20138,7 +20189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" ht="15" customHeight="1">
       <c r="A350" s="1">
         <v>260</v>
       </c>
@@ -20185,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" ht="15" customHeight="1">
       <c r="A351" s="1">
         <v>260</v>
       </c>
@@ -20232,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" ht="15" customHeight="1">
       <c r="A352" s="1">
         <v>261</v>
       </c>
@@ -20279,7 +20330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" ht="15" customHeight="1">
       <c r="A353" s="1">
         <v>261</v>
       </c>
@@ -20326,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" ht="15" customHeight="1">
       <c r="A354" s="1">
         <v>262</v>
       </c>
@@ -20373,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" ht="15" customHeight="1">
       <c r="A355" s="1">
         <v>262</v>
       </c>
@@ -20420,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" ht="15" customHeight="1">
       <c r="A356" s="1">
         <v>263</v>
       </c>
@@ -20467,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" ht="15" customHeight="1">
       <c r="A357" s="1">
         <v>263</v>
       </c>
@@ -20514,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" ht="15" customHeight="1">
       <c r="A358" s="1">
         <v>264</v>
       </c>
@@ -20561,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" ht="15" customHeight="1">
       <c r="A359" s="1">
         <v>264</v>
       </c>
@@ -20608,7 +20659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" ht="15" customHeight="1">
       <c r="A360" s="1">
         <v>266</v>
       </c>
@@ -20655,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" ht="15" customHeight="1">
       <c r="A361" s="1">
         <v>266</v>
       </c>
@@ -20702,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" ht="15" customHeight="1">
       <c r="A362" s="1">
         <v>267</v>
       </c>
@@ -20749,7 +20800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" ht="15" customHeight="1">
       <c r="A363" s="1">
         <v>267</v>
       </c>
@@ -20796,7 +20847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" ht="15" customHeight="1">
       <c r="A364" s="1">
         <v>268</v>
       </c>
@@ -20843,7 +20894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" ht="15" customHeight="1">
       <c r="A365" s="1">
         <v>268</v>
       </c>
@@ -20890,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" ht="15" customHeight="1">
       <c r="A366" s="1">
         <v>269</v>
       </c>
@@ -20937,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" ht="15" customHeight="1">
       <c r="A367" s="1">
         <v>269</v>
       </c>
@@ -20984,7 +21035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" ht="15" customHeight="1">
       <c r="A368" s="1">
         <v>273</v>
       </c>
@@ -21031,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" ht="15" customHeight="1">
       <c r="A369" s="1">
         <v>273</v>
       </c>
@@ -21078,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" ht="15" customHeight="1">
       <c r="A370" s="1">
         <v>295</v>
       </c>
@@ -21125,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" ht="15" customHeight="1">
       <c r="A371" s="1">
         <v>295</v>
       </c>
@@ -21172,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" ht="15" customHeight="1">
       <c r="A372" s="1">
         <v>296</v>
       </c>
@@ -21219,7 +21270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" ht="15" customHeight="1">
       <c r="A373" s="1">
         <v>296</v>
       </c>
@@ -21266,7 +21317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" ht="15" customHeight="1">
       <c r="A374" s="1">
         <v>297</v>
       </c>
@@ -21313,7 +21364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" ht="15" customHeight="1">
       <c r="A375" s="1">
         <v>297</v>
       </c>
@@ -21360,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" ht="15" customHeight="1">
       <c r="A376" s="1">
         <v>298</v>
       </c>
@@ -21407,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" ht="15" customHeight="1">
       <c r="A377" s="1">
         <v>298</v>
       </c>
@@ -21454,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" ht="15" customHeight="1">
       <c r="A378" s="1">
         <v>300</v>
       </c>
@@ -21501,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" ht="15" customHeight="1">
       <c r="A379" s="1">
         <v>300</v>
       </c>
@@ -21548,7 +21599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" ht="15" customHeight="1">
       <c r="A380" s="1">
         <v>301</v>
       </c>
@@ -21595,7 +21646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" ht="15" customHeight="1">
       <c r="A381" s="1">
         <v>301</v>
       </c>
@@ -21642,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" ht="15" customHeight="1">
       <c r="A382" s="1">
         <v>303</v>
       </c>
@@ -21689,7 +21740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" ht="15" customHeight="1">
       <c r="A383" s="1">
         <v>303</v>
       </c>
@@ -21736,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" ht="15" customHeight="1">
       <c r="A384" s="1">
         <v>305</v>
       </c>
@@ -21783,7 +21834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" ht="15" customHeight="1">
       <c r="A385" s="1">
         <v>305</v>
       </c>
@@ -21830,7 +21881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" ht="15" customHeight="1">
       <c r="A386" s="1">
         <v>306</v>
       </c>
@@ -21877,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" ht="15" customHeight="1">
       <c r="A387" s="1">
         <v>306</v>
       </c>
@@ -21924,7 +21975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" ht="15" customHeight="1">
       <c r="A388" s="1">
         <v>307</v>
       </c>
@@ -21971,7 +22022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" ht="15" customHeight="1">
       <c r="A389" s="1">
         <v>307</v>
       </c>
@@ -22018,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" ht="15" customHeight="1">
       <c r="A390" s="1">
         <v>308</v>
       </c>
@@ -22065,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" ht="15" customHeight="1">
       <c r="A391" s="1">
         <v>308</v>
       </c>
@@ -22112,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" ht="15" customHeight="1">
       <c r="A392" s="1">
         <v>309</v>
       </c>
@@ -22159,7 +22210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" ht="15" customHeight="1">
       <c r="A393" s="1">
         <v>309</v>
       </c>
@@ -22206,7 +22257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" ht="15" customHeight="1">
       <c r="A394" s="1">
         <v>310</v>
       </c>
@@ -22253,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" ht="15" customHeight="1">
       <c r="A395" s="1">
         <v>310</v>
       </c>
@@ -22300,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" ht="15" customHeight="1">
       <c r="A396" s="1">
         <v>311</v>
       </c>
@@ -22347,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" ht="15" customHeight="1">
       <c r="A397" s="1">
         <v>311</v>
       </c>
@@ -22394,7 +22445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" ht="15" customHeight="1">
       <c r="A398" s="1">
         <v>312</v>
       </c>
@@ -22441,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" ht="15" customHeight="1">
       <c r="A399" s="1">
         <v>312</v>
       </c>
@@ -22488,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" ht="15" customHeight="1">
       <c r="A400" s="1">
         <v>314</v>
       </c>
@@ -22535,7 +22586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" ht="15" customHeight="1">
       <c r="A401" s="1">
         <v>314</v>
       </c>
@@ -22582,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" ht="15" customHeight="1">
       <c r="A402" s="7">
         <v>315</v>
       </c>
@@ -22629,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" ht="15" customHeight="1">
       <c r="A403" s="7">
         <v>315</v>
       </c>
@@ -22676,7 +22727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" ht="15" customHeight="1">
       <c r="A404" s="1">
         <v>317</v>
       </c>
@@ -22723,7 +22774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" ht="15" customHeight="1">
       <c r="A405" s="1">
         <v>317</v>
       </c>
@@ -22770,7 +22821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" ht="15" customHeight="1">
       <c r="A406" s="1">
         <v>318</v>
       </c>
@@ -22817,7 +22868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" ht="15" customHeight="1">
       <c r="A407" s="1">
         <v>318</v>
       </c>
@@ -22864,7 +22915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" ht="15" customHeight="1">
       <c r="A408" s="1">
         <v>319</v>
       </c>
@@ -22911,7 +22962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" ht="15" customHeight="1">
       <c r="A409" s="1">
         <v>319</v>
       </c>
@@ -22958,7 +23009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" ht="15" customHeight="1">
       <c r="A410" s="1">
         <v>320</v>
       </c>
@@ -23005,7 +23056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" ht="15" customHeight="1">
       <c r="A411" s="1">
         <v>320</v>
       </c>
@@ -23052,7 +23103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" ht="15" customHeight="1">
       <c r="A412" s="1">
         <v>321</v>
       </c>
@@ -23099,7 +23150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" ht="15" customHeight="1">
       <c r="A413" s="1">
         <v>321</v>
       </c>
@@ -23146,7 +23197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" ht="15" customHeight="1">
       <c r="A414" s="1">
         <v>323</v>
       </c>
@@ -23193,7 +23244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" ht="15" customHeight="1">
       <c r="A415" s="1">
         <v>323</v>
       </c>
@@ -23240,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" ht="15" customHeight="1">
       <c r="A416" s="1">
         <v>324</v>
       </c>
@@ -23287,7 +23338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" ht="15" customHeight="1">
       <c r="A417" s="1">
         <v>324</v>
       </c>
@@ -23334,7 +23385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" ht="15" customHeight="1">
       <c r="A418" s="1">
         <v>336</v>
       </c>
@@ -23381,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" ht="15" customHeight="1">
       <c r="A419" s="1">
         <v>336</v>
       </c>
@@ -23428,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" ht="15" customHeight="1">
       <c r="A420" s="1">
         <v>337</v>
       </c>
@@ -23475,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" ht="15" customHeight="1">
       <c r="A421" s="1">
         <v>337</v>
       </c>
@@ -23522,7 +23573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" ht="15" customHeight="1">
       <c r="A422" s="1">
         <v>338</v>
       </c>
@@ -23569,7 +23620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" ht="15" customHeight="1">
       <c r="A423" s="1">
         <v>338</v>
       </c>
@@ -23616,7 +23667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" ht="15" customHeight="1">
       <c r="A424" s="1">
         <v>339</v>
       </c>
@@ -23663,7 +23714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" ht="15" customHeight="1">
       <c r="A425" s="1">
         <v>339</v>
       </c>
@@ -23710,7 +23761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" ht="15" customHeight="1">
       <c r="A426" s="1">
         <v>340</v>
       </c>
@@ -23757,7 +23808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" ht="15" customHeight="1">
       <c r="A427" s="1">
         <v>340</v>
       </c>
@@ -23804,7 +23855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" ht="15" customHeight="1">
       <c r="A428" s="1">
         <v>341</v>
       </c>
@@ -23851,7 +23902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" ht="15" customHeight="1">
       <c r="A429" s="1">
         <v>341</v>
       </c>
@@ -23898,7 +23949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" ht="15" customHeight="1">
       <c r="A430" s="1">
         <v>342</v>
       </c>
@@ -23945,7 +23996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" ht="15" customHeight="1">
       <c r="A431" s="1">
         <v>342</v>
       </c>
@@ -23992,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" ht="15" customHeight="1">
       <c r="A432" s="1">
         <v>344</v>
       </c>
@@ -24039,7 +24090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" ht="15" customHeight="1">
       <c r="A433" s="1">
         <v>344</v>
       </c>
@@ -24086,7 +24137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" ht="15" customHeight="1">
       <c r="A434" s="1">
         <v>345</v>
       </c>
@@ -24133,7 +24184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" ht="15" customHeight="1">
       <c r="A435" s="1">
         <v>345</v>
       </c>
@@ -24180,7 +24231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" ht="15" customHeight="1">
       <c r="A436" s="1">
         <v>346</v>
       </c>
@@ -24227,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" ht="15" customHeight="1">
       <c r="A437" s="1">
         <v>346</v>
       </c>
@@ -24274,7 +24325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" ht="15" customHeight="1">
       <c r="A438" s="1">
         <v>347</v>
       </c>
@@ -24321,7 +24372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" ht="15" customHeight="1">
       <c r="A439" s="1">
         <v>347</v>
       </c>
@@ -24368,7 +24419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" ht="15" customHeight="1">
       <c r="A440" s="1">
         <v>349</v>
       </c>
@@ -24415,7 +24466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" ht="15" customHeight="1">
       <c r="A441" s="1">
         <v>349</v>
       </c>
@@ -24462,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" ht="15" customHeight="1">
       <c r="A442" s="1">
         <v>350</v>
       </c>
@@ -24509,7 +24560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" ht="15" customHeight="1">
       <c r="A443" s="1">
         <v>350</v>
       </c>
@@ -24556,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" ht="15" customHeight="1">
       <c r="A444" s="1">
         <v>351</v>
       </c>
@@ -24603,7 +24654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" ht="15" customHeight="1">
       <c r="A445" s="1">
         <v>351</v>
       </c>
@@ -24650,7 +24701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" ht="15" customHeight="1">
       <c r="A446" s="1">
         <v>352</v>
       </c>
@@ -24697,7 +24748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" ht="15" customHeight="1">
       <c r="A447" s="1">
         <v>352</v>
       </c>
@@ -24744,7 +24795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" ht="15" customHeight="1">
       <c r="A448" s="1">
         <v>353</v>
       </c>
@@ -24791,7 +24842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" ht="15" customHeight="1">
       <c r="A449" s="1">
         <v>353</v>
       </c>
@@ -24838,7 +24889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" ht="15" customHeight="1">
       <c r="A450" s="1">
         <v>355</v>
       </c>
@@ -24885,7 +24936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" ht="15" customHeight="1">
       <c r="A451" s="1">
         <v>355</v>
       </c>
@@ -24932,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15">
+    <row r="452" spans="1:15" ht="15" customHeight="1">
       <c r="A452" s="1">
         <v>357</v>
       </c>
@@ -24979,7 +25030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" ht="15" customHeight="1">
       <c r="A453" s="1">
         <v>357</v>
       </c>
@@ -25026,7 +25077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="454" spans="1:15">
+    <row r="454" spans="1:15" ht="15" customHeight="1">
       <c r="A454" s="1">
         <v>358</v>
       </c>
@@ -25073,7 +25124,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" ht="15" customHeight="1">
       <c r="A455" s="1">
         <v>358</v>
       </c>
@@ -25120,7 +25171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="456" spans="1:15">
+    <row r="456" spans="1:15" ht="15" customHeight="1">
       <c r="A456" s="1">
         <v>367</v>
       </c>
@@ -25167,7 +25218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" ht="15" customHeight="1">
       <c r="A457" s="1">
         <v>367</v>
       </c>
@@ -25214,7 +25265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" ht="15" customHeight="1">
       <c r="A458" s="1">
         <v>368</v>
       </c>
@@ -25261,7 +25312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" ht="15" customHeight="1">
       <c r="A459" s="1">
         <v>368</v>
       </c>
@@ -25308,7 +25359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15">
+    <row r="460" spans="1:15" ht="15" customHeight="1">
       <c r="A460" s="1">
         <v>369</v>
       </c>
@@ -25355,7 +25406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15">
+    <row r="461" spans="1:15" ht="15" customHeight="1">
       <c r="A461" s="1">
         <v>369</v>
       </c>
@@ -25402,7 +25453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" ht="15" customHeight="1">
       <c r="A462" s="1">
         <v>370</v>
       </c>
@@ -25449,7 +25500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15">
+    <row r="463" spans="1:15" ht="15" customHeight="1">
       <c r="A463" s="1">
         <v>370</v>
       </c>
@@ -25496,7 +25547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15">
+    <row r="464" spans="1:15" ht="15" customHeight="1">
       <c r="A464" s="1">
         <v>371</v>
       </c>
@@ -25543,7 +25594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" ht="15" customHeight="1">
       <c r="A465" s="1">
         <v>371</v>
       </c>
@@ -25590,7 +25641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" ht="15" customHeight="1">
       <c r="A466" s="1">
         <v>372</v>
       </c>
@@ -25637,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" ht="15" customHeight="1">
       <c r="A467" s="1">
         <v>372</v>
       </c>
@@ -25684,7 +25735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" ht="15" customHeight="1">
       <c r="A468" s="1">
         <v>374</v>
       </c>
@@ -25731,7 +25782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" ht="15" customHeight="1">
       <c r="A469" s="1">
         <v>374</v>
       </c>
@@ -25778,7 +25829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" ht="15" customHeight="1">
       <c r="A470" s="1">
         <v>375</v>
       </c>
@@ -25825,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" ht="15" customHeight="1">
       <c r="A471" s="1">
         <v>375</v>
       </c>
@@ -25872,7 +25923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" ht="15" customHeight="1">
       <c r="A472" s="1">
         <v>376</v>
       </c>
@@ -25919,7 +25970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" ht="15" customHeight="1">
       <c r="A473" s="1">
         <v>376</v>
       </c>
@@ -25966,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" ht="15" customHeight="1">
       <c r="A474" s="1">
         <v>378</v>
       </c>
@@ -26013,7 +26064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" ht="15" customHeight="1">
       <c r="A475" s="1">
         <v>378</v>
       </c>
@@ -26060,7 +26111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" ht="15" customHeight="1">
       <c r="A476" s="1">
         <v>379</v>
       </c>
@@ -26107,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" ht="15" customHeight="1">
       <c r="A477" s="1">
         <v>379</v>
       </c>
@@ -26154,7 +26205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" ht="15" customHeight="1">
       <c r="A478" s="1">
         <v>380</v>
       </c>
@@ -26201,7 +26252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" ht="15" customHeight="1">
       <c r="A479" s="1">
         <v>380</v>
       </c>
@@ -26248,7 +26299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" ht="15" customHeight="1">
       <c r="A480" s="1">
         <v>381</v>
       </c>
@@ -26295,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" ht="15" customHeight="1">
       <c r="A481" s="1">
         <v>381</v>
       </c>
@@ -26342,7 +26393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15">
+    <row r="482" spans="1:15" ht="15" customHeight="1">
       <c r="A482" s="1">
         <v>382</v>
       </c>
@@ -26389,7 +26440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15">
+    <row r="483" spans="1:15" ht="15" customHeight="1">
       <c r="A483" s="1">
         <v>383</v>
       </c>
@@ -26436,7 +26487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" ht="15" customHeight="1">
       <c r="A484" s="1">
         <v>383</v>
       </c>
@@ -26483,7 +26534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:15">
+    <row r="485" spans="1:15" ht="15" customHeight="1">
       <c r="A485" s="1">
         <v>384</v>
       </c>
@@ -26530,7 +26581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15">
+    <row r="486" spans="1:15" ht="15" customHeight="1">
       <c r="A486" s="1">
         <v>384</v>
       </c>
@@ -26577,7 +26628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" ht="15" customHeight="1">
       <c r="A487" s="1">
         <v>385</v>
       </c>
@@ -26624,7 +26675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" ht="15" customHeight="1">
       <c r="A488" s="1">
         <v>385</v>
       </c>
@@ -26671,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:15" ht="15" customHeight="1">
       <c r="A489" s="1">
         <v>386</v>
       </c>
@@ -26718,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:15">
+    <row r="490" spans="1:15" ht="15" customHeight="1">
       <c r="A490" s="1">
         <v>386</v>
       </c>
@@ -26765,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:15" ht="15" customHeight="1">
       <c r="A491" s="1">
         <v>387</v>
       </c>
@@ -26812,7 +26863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:15" ht="15" customHeight="1">
       <c r="A492" s="1">
         <v>387</v>
       </c>
@@ -26859,7 +26910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15">
+    <row r="493" spans="1:15" ht="15" customHeight="1">
       <c r="A493" s="1">
         <v>389</v>
       </c>
@@ -26906,7 +26957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" ht="15" customHeight="1">
       <c r="A494" s="1">
         <v>389</v>
       </c>
@@ -26953,7 +27004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" ht="15" customHeight="1">
       <c r="A495" s="1">
         <v>390</v>
       </c>
@@ -27000,7 +27051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" ht="15" customHeight="1">
       <c r="A496" s="1">
         <v>390</v>
       </c>
@@ -27047,7 +27098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" ht="15" customHeight="1">
       <c r="A497" s="1">
         <v>391</v>
       </c>
@@ -27094,7 +27145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15">
+    <row r="498" spans="1:15" ht="15" customHeight="1">
       <c r="A498" s="1">
         <v>391</v>
       </c>
@@ -27141,7 +27192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15">
+    <row r="499" spans="1:15" ht="15" customHeight="1">
       <c r="A499" s="1">
         <v>392</v>
       </c>
@@ -27188,7 +27239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" ht="15" customHeight="1">
       <c r="A500" s="1">
         <v>392</v>
       </c>
@@ -27235,7 +27286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" ht="15" customHeight="1">
       <c r="A501" s="1">
         <v>393</v>
       </c>
@@ -27282,7 +27333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" ht="15" customHeight="1">
       <c r="A502" s="1">
         <v>393</v>
       </c>
@@ -27329,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" ht="15" customHeight="1">
       <c r="A503" s="1">
         <v>394</v>
       </c>
@@ -27376,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:15">
+    <row r="504" spans="1:15" ht="15" customHeight="1">
       <c r="A504" s="1">
         <v>394</v>
       </c>
@@ -27423,7 +27474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" ht="15" customHeight="1">
       <c r="A505" s="1">
         <v>406</v>
       </c>
@@ -27470,7 +27521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" ht="15" customHeight="1">
       <c r="A506" s="1">
         <v>406</v>
       </c>
@@ -27517,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" ht="15" customHeight="1">
       <c r="A507" s="1">
         <v>407</v>
       </c>
@@ -27564,7 +27615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:15" ht="15" customHeight="1">
       <c r="A508" s="1">
         <v>407</v>
       </c>
@@ -27611,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" ht="15" customHeight="1">
       <c r="A509" s="1">
         <v>408</v>
       </c>
@@ -27658,7 +27709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:15">
+    <row r="510" spans="1:15" ht="15" customHeight="1">
       <c r="A510" s="1">
         <v>408</v>
       </c>
@@ -27705,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:15">
+    <row r="511" spans="1:15" ht="15" customHeight="1">
       <c r="A511" s="1">
         <v>409</v>
       </c>
@@ -27752,7 +27803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:15">
+    <row r="512" spans="1:15" ht="15" customHeight="1">
       <c r="A512" s="1">
         <v>409</v>
       </c>
@@ -27799,7 +27850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" ht="15" customHeight="1">
       <c r="A513" s="1">
         <v>410</v>
       </c>
@@ -27846,7 +27897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" ht="15" customHeight="1">
       <c r="A514" s="1">
         <v>410</v>
       </c>
@@ -27893,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" ht="15" customHeight="1">
       <c r="A515" s="1">
         <v>411</v>
       </c>
@@ -27940,7 +27991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" ht="15" customHeight="1">
       <c r="A516" s="1">
         <v>412</v>
       </c>
@@ -27987,7 +28038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" ht="15" customHeight="1">
       <c r="A517" s="1">
         <v>412</v>
       </c>
@@ -28034,7 +28085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" ht="15" customHeight="1">
       <c r="A518" s="1">
         <v>413</v>
       </c>
@@ -28081,7 +28132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" ht="15" customHeight="1">
       <c r="A519" s="1">
         <v>413</v>
       </c>
@@ -28128,7 +28179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" ht="15" customHeight="1">
       <c r="A520" s="1">
         <v>414</v>
       </c>
@@ -28175,7 +28226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" ht="15" customHeight="1">
       <c r="A521" s="1">
         <v>414</v>
       </c>
@@ -28222,7 +28273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" ht="15" customHeight="1">
       <c r="A522" s="1">
         <v>415</v>
       </c>
@@ -28269,7 +28320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" ht="15" customHeight="1">
       <c r="A523" s="1">
         <v>415</v>
       </c>
@@ -28316,7 +28367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" ht="15" customHeight="1">
       <c r="A524" s="1">
         <v>416</v>
       </c>
@@ -28363,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" ht="15" customHeight="1">
       <c r="A525" s="1">
         <v>416</v>
       </c>
@@ -28410,7 +28461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" ht="15" customHeight="1">
       <c r="A526" s="1">
         <v>417</v>
       </c>
@@ -28457,7 +28508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" ht="15" customHeight="1">
       <c r="A527" s="1">
         <v>417</v>
       </c>
@@ -28504,7 +28555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" ht="15" customHeight="1">
       <c r="A528" s="1">
         <v>418</v>
       </c>
@@ -28551,7 +28602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" ht="15" customHeight="1">
       <c r="A529" s="1">
         <v>418</v>
       </c>
@@ -28598,7 +28649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" ht="15" customHeight="1">
       <c r="A530" s="1">
         <v>419</v>
       </c>
@@ -28645,7 +28696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" ht="15" customHeight="1">
       <c r="A531" s="1">
         <v>419</v>
       </c>
@@ -28692,7 +28743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" ht="15" customHeight="1">
       <c r="A532" s="1">
         <v>420</v>
       </c>
@@ -28739,7 +28790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" ht="15" customHeight="1">
       <c r="A533" s="1">
         <v>420</v>
       </c>
@@ -28786,7 +28837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" ht="15" customHeight="1">
       <c r="A534" s="1">
         <v>421</v>
       </c>
@@ -28833,7 +28884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" ht="15" customHeight="1">
       <c r="A535" s="1">
         <v>421</v>
       </c>
@@ -28880,7 +28931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" ht="15" customHeight="1">
       <c r="A536" s="1">
         <v>422</v>
       </c>
@@ -28927,7 +28978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" ht="15" customHeight="1">
       <c r="A537" s="1">
         <v>422</v>
       </c>
@@ -28974,7 +29025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" ht="15" customHeight="1">
       <c r="A538" s="1">
         <v>423</v>
       </c>
@@ -29021,7 +29072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" ht="15" customHeight="1">
       <c r="A539" s="1">
         <v>423</v>
       </c>
@@ -29068,7 +29119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" ht="15" customHeight="1">
       <c r="A540" s="1">
         <v>424</v>
       </c>
@@ -29115,7 +29166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" ht="15" customHeight="1">
       <c r="A541" s="1">
         <v>424</v>
       </c>
@@ -29162,7 +29213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" ht="15" customHeight="1">
       <c r="A542" s="1">
         <v>425</v>
       </c>
@@ -29209,7 +29260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" ht="15" customHeight="1">
       <c r="A543" s="1">
         <v>425</v>
       </c>
@@ -29256,7 +29307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" ht="15" customHeight="1">
       <c r="A544" s="1">
         <v>426</v>
       </c>
@@ -29303,7 +29354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" ht="15" customHeight="1">
       <c r="A545" s="1">
         <v>426</v>
       </c>
@@ -29350,7 +29401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" ht="15" customHeight="1">
       <c r="A546" s="1">
         <v>427</v>
       </c>
@@ -29397,7 +29448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" ht="15" customHeight="1">
       <c r="A547" s="1">
         <v>427</v>
       </c>
@@ -29444,7 +29495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" ht="15" customHeight="1">
       <c r="A548" s="1">
         <v>428</v>
       </c>
@@ -29491,7 +29542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" ht="15" customHeight="1">
       <c r="A549" s="1">
         <v>428</v>
       </c>
@@ -29538,7 +29589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" ht="15" customHeight="1">
       <c r="A550" s="1">
         <v>429</v>
       </c>
@@ -29585,7 +29636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" ht="15" customHeight="1">
       <c r="A551" s="1">
         <v>429</v>
       </c>
@@ -29632,7 +29683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" ht="15" customHeight="1">
       <c r="A552" s="1">
         <v>431</v>
       </c>
@@ -29679,7 +29730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" ht="15" customHeight="1">
       <c r="A553" s="1">
         <v>431</v>
       </c>
@@ -29726,7 +29777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" ht="15" customHeight="1">
       <c r="A554" s="1">
         <v>432</v>
       </c>
@@ -29773,7 +29824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" ht="15" customHeight="1">
       <c r="A555" s="1">
         <v>432</v>
       </c>
@@ -29820,7 +29871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" ht="15" customHeight="1">
       <c r="A556" s="1">
         <v>433</v>
       </c>
@@ -29867,7 +29918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" ht="15" customHeight="1">
       <c r="A557" s="1">
         <v>433</v>
       </c>
@@ -29914,7 +29965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" ht="15" customHeight="1">
       <c r="A558" s="1">
         <v>434</v>
       </c>
@@ -29961,7 +30012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" ht="15" customHeight="1">
       <c r="A559" s="1">
         <v>434</v>
       </c>
@@ -30008,7 +30059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" ht="15" customHeight="1">
       <c r="A560" s="1">
         <v>435</v>
       </c>
@@ -30055,7 +30106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" ht="15" customHeight="1">
       <c r="A561" s="1">
         <v>435</v>
       </c>
@@ -30102,7 +30153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" ht="15" customHeight="1">
       <c r="A562" s="1">
         <v>436</v>
       </c>
@@ -30149,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" ht="15" customHeight="1">
       <c r="A563" s="1">
         <v>436</v>
       </c>
@@ -30196,7 +30247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" ht="15" customHeight="1">
       <c r="A564" s="1">
         <v>437</v>
       </c>
@@ -30243,7 +30294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" ht="15" customHeight="1">
       <c r="A565" s="1">
         <v>437</v>
       </c>
@@ -30290,7 +30341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" ht="15" customHeight="1">
       <c r="A566" s="1">
         <v>439</v>
       </c>
@@ -30337,7 +30388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" ht="15" customHeight="1">
       <c r="A567" s="1">
         <v>439</v>
       </c>
@@ -30384,7 +30435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" ht="15" customHeight="1">
       <c r="A568" s="1">
         <v>441</v>
       </c>
@@ -30431,7 +30482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" ht="15" customHeight="1">
       <c r="A569" s="1">
         <v>441</v>
       </c>
@@ -30478,7 +30529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" ht="15" customHeight="1">
       <c r="A570" s="1">
         <v>442</v>
       </c>
@@ -30525,7 +30576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" ht="15" customHeight="1">
       <c r="A571" s="1">
         <v>442</v>
       </c>
@@ -30572,7 +30623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" ht="15" customHeight="1">
       <c r="A572" s="1">
         <v>443</v>
       </c>
@@ -30619,7 +30670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" ht="15" customHeight="1">
       <c r="A573" s="1">
         <v>443</v>
       </c>
@@ -30666,7 +30717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" ht="15" customHeight="1">
       <c r="A574" s="1">
         <v>444</v>
       </c>
@@ -30713,7 +30764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" ht="15" customHeight="1">
       <c r="A575" s="1">
         <v>444</v>
       </c>
@@ -30760,7 +30811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" ht="15" customHeight="1">
       <c r="A576" s="1">
         <v>445</v>
       </c>
@@ -30807,7 +30858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" ht="15" customHeight="1">
       <c r="A577" s="1">
         <v>445</v>
       </c>
@@ -30854,7 +30905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" ht="15" customHeight="1">
       <c r="A578" s="1">
         <v>446</v>
       </c>
@@ -30901,7 +30952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" ht="15" customHeight="1">
       <c r="A579" s="1">
         <v>446</v>
       </c>
@@ -30948,7 +30999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" ht="15" customHeight="1">
       <c r="A580" s="1">
         <v>448</v>
       </c>
@@ -30995,7 +31046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" ht="15" customHeight="1">
       <c r="A581" s="1">
         <v>448</v>
       </c>
@@ -31042,7 +31093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" ht="15" customHeight="1">
       <c r="A582" s="1">
         <v>449</v>
       </c>
@@ -31089,7 +31140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" ht="15" customHeight="1">
       <c r="A583" s="1">
         <v>449</v>
       </c>
@@ -31136,7 +31187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" ht="15" customHeight="1">
       <c r="A584" s="1">
         <v>450</v>
       </c>
@@ -31183,7 +31234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" ht="15" customHeight="1">
       <c r="A585" s="1">
         <v>450</v>
       </c>
@@ -31230,7 +31281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" ht="15" customHeight="1">
       <c r="A586" s="1">
         <v>451</v>
       </c>
@@ -31277,7 +31328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" ht="15" customHeight="1">
       <c r="A587" s="1">
         <v>451</v>
       </c>
@@ -31324,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" ht="15" customHeight="1">
       <c r="A588" s="1">
         <v>452</v>
       </c>
@@ -31371,7 +31422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" ht="15" customHeight="1">
       <c r="A589" s="1">
         <v>452</v>
       </c>
@@ -31418,7 +31469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" ht="15" customHeight="1">
       <c r="A590" s="1">
         <v>453</v>
       </c>
@@ -31465,7 +31516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" ht="15" customHeight="1">
       <c r="A591" s="1">
         <v>453</v>
       </c>
@@ -31512,7 +31563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" ht="15" customHeight="1">
       <c r="A592" s="1">
         <v>454</v>
       </c>
@@ -31559,7 +31610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" ht="15" customHeight="1">
       <c r="A593" s="1">
         <v>454</v>
       </c>
@@ -31606,7 +31657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" ht="15" customHeight="1">
       <c r="A594" s="1">
         <v>455</v>
       </c>
@@ -31653,7 +31704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" ht="15" customHeight="1">
       <c r="A595" s="1">
         <v>455</v>
       </c>
@@ -31700,7 +31751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" ht="15" customHeight="1">
       <c r="A596" s="1">
         <v>457</v>
       </c>
@@ -31747,7 +31798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" ht="15" customHeight="1">
       <c r="A597" s="1">
         <v>457</v>
       </c>
@@ -31794,7 +31845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" ht="15" customHeight="1">
       <c r="A598" s="1">
         <v>458</v>
       </c>
@@ -31841,7 +31892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" ht="15" customHeight="1">
       <c r="A599" s="1">
         <v>458</v>
       </c>
@@ -31888,7 +31939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" ht="15" customHeight="1">
       <c r="A600" s="1">
         <v>460</v>
       </c>
@@ -31935,7 +31986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" ht="15" customHeight="1">
       <c r="A601" s="1">
         <v>460</v>
       </c>
@@ -31982,7 +32033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" ht="15" customHeight="1">
       <c r="A602" s="1">
         <v>461</v>
       </c>
@@ -32029,7 +32080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" ht="15" customHeight="1">
       <c r="A603" s="7">
         <v>461</v>
       </c>
@@ -32076,7 +32127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" ht="15" customHeight="1">
       <c r="A604" s="1">
         <v>462</v>
       </c>
@@ -32123,7 +32174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" ht="15" customHeight="1">
       <c r="A605" s="1">
         <v>462</v>
       </c>
@@ -32170,7 +32221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" ht="15" customHeight="1">
       <c r="A606" s="1">
         <v>463</v>
       </c>
@@ -32217,7 +32268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" ht="15" customHeight="1">
       <c r="A607" s="1">
         <v>464</v>
       </c>
@@ -32264,7 +32315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" ht="15" customHeight="1">
       <c r="A608" s="1">
         <v>464</v>
       </c>
@@ -32311,7 +32362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="609" spans="1:26">
+    <row r="609" spans="1:26" ht="15" customHeight="1">
       <c r="A609" s="1">
         <v>465</v>
       </c>
@@ -32358,7 +32409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:26">
+    <row r="610" spans="1:26" ht="15" customHeight="1">
       <c r="A610" s="1">
         <v>465</v>
       </c>
@@ -32405,7 +32456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:26">
+    <row r="611" spans="1:26" ht="15" customHeight="1">
       <c r="A611" s="1">
         <v>466</v>
       </c>
@@ -32452,7 +32503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:26">
+    <row r="612" spans="1:26" ht="15" customHeight="1">
       <c r="A612" s="1">
         <v>466</v>
       </c>
@@ -32499,7 +32550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:26">
+    <row r="613" spans="1:26" ht="15" customHeight="1">
       <c r="A613" s="1">
         <v>467</v>
       </c>
@@ -32546,7 +32597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:26">
+    <row r="614" spans="1:26" ht="15" customHeight="1">
       <c r="A614" s="1">
         <v>467</v>
       </c>
@@ -32593,7 +32644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:26">
+    <row r="615" spans="1:26" ht="15" customHeight="1">
       <c r="A615" s="7">
         <v>468</v>
       </c>
@@ -32649,7 +32700,7 @@
       <c r="Y615" s="11"/>
       <c r="Z615" s="11"/>
     </row>
-    <row r="616" spans="1:26">
+    <row r="616" spans="1:26" ht="15" customHeight="1">
       <c r="A616" s="1">
         <v>469</v>
       </c>
@@ -32696,7 +32747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:26">
+    <row r="617" spans="1:26" ht="15" customHeight="1">
       <c r="A617" s="1">
         <v>469</v>
       </c>
@@ -32743,7 +32794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:26">
+    <row r="618" spans="1:26" ht="15" customHeight="1">
       <c r="A618" s="1">
         <v>471</v>
       </c>
@@ -32790,7 +32841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:26">
+    <row r="619" spans="1:26" ht="15" customHeight="1">
       <c r="A619" s="1">
         <v>471</v>
       </c>
@@ -32837,7 +32888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:26">
+    <row r="620" spans="1:26" ht="15" customHeight="1">
       <c r="A620" s="1">
         <v>473</v>
       </c>
@@ -32884,7 +32935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:26">
+    <row r="621" spans="1:26" ht="15" customHeight="1">
       <c r="A621" s="1">
         <v>473</v>
       </c>
@@ -32931,7 +32982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:26">
+    <row r="622" spans="1:26" ht="15" customHeight="1">
       <c r="A622" s="1">
         <v>474</v>
       </c>
@@ -32978,7 +33029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:26">
+    <row r="623" spans="1:26" ht="15" customHeight="1">
       <c r="A623" s="1">
         <v>474</v>
       </c>
@@ -33025,7 +33076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:26">
+    <row r="624" spans="1:26" ht="15" customHeight="1">
       <c r="A624" s="1">
         <v>475</v>
       </c>
@@ -33072,7 +33123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" ht="15" customHeight="1">
       <c r="A625" s="1">
         <v>475</v>
       </c>
@@ -33119,7 +33170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" ht="15" customHeight="1">
       <c r="A626" s="1">
         <v>476</v>
       </c>
@@ -33166,7 +33217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" ht="15" customHeight="1">
       <c r="A627" s="1">
         <v>476</v>
       </c>
@@ -33213,7 +33264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" ht="15" customHeight="1">
       <c r="A628" s="1">
         <v>477</v>
       </c>
@@ -33260,7 +33311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" ht="15" customHeight="1">
       <c r="A629" s="1">
         <v>477</v>
       </c>
@@ -33307,7 +33358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" ht="15" customHeight="1">
       <c r="A630" s="1">
         <v>478</v>
       </c>
@@ -33354,7 +33405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" ht="15" customHeight="1">
       <c r="A631" s="1">
         <v>478</v>
       </c>
@@ -33401,7 +33452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" ht="15" customHeight="1">
       <c r="A632" s="1">
         <v>479</v>
       </c>
@@ -33448,7 +33499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" ht="15" customHeight="1">
       <c r="A633" s="1">
         <v>479</v>
       </c>
@@ -33495,7 +33546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" ht="15" customHeight="1">
       <c r="A634" s="1">
         <v>480</v>
       </c>
@@ -33542,7 +33593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" ht="15" customHeight="1">
       <c r="A635" s="1">
         <v>480</v>
       </c>
@@ -33589,7 +33640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" ht="15" customHeight="1">
       <c r="A636" s="1">
         <v>481</v>
       </c>
@@ -33636,7 +33687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" ht="15" customHeight="1">
       <c r="A637" s="1">
         <v>481</v>
       </c>
@@ -33683,7 +33734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" ht="15" customHeight="1">
       <c r="A638" s="1">
         <v>482</v>
       </c>
@@ -33730,7 +33781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" ht="15" customHeight="1">
       <c r="A639" s="1">
         <v>482</v>
       </c>
@@ -33777,7 +33828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" ht="15" customHeight="1">
       <c r="A640" s="1">
         <v>483</v>
       </c>
@@ -33824,7 +33875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" ht="15" customHeight="1">
       <c r="A641" s="1">
         <v>483</v>
       </c>
@@ -33871,7 +33922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" ht="15" customHeight="1">
       <c r="A642" s="1">
         <v>494</v>
       </c>
@@ -33918,7 +33969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" ht="15" customHeight="1">
       <c r="A643" s="1">
         <v>494</v>
       </c>
@@ -33965,7 +34016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" ht="15" customHeight="1">
       <c r="A644" s="1">
         <v>495</v>
       </c>
@@ -34012,7 +34063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" ht="15" customHeight="1">
       <c r="A645" s="1">
         <v>495</v>
       </c>
@@ -34059,7 +34110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" ht="15" customHeight="1">
       <c r="A646" s="1">
         <v>496</v>
       </c>
@@ -34106,7 +34157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" ht="15" customHeight="1">
       <c r="A647" s="1">
         <v>496</v>
       </c>
@@ -34153,7 +34204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" ht="15" customHeight="1">
       <c r="A648" s="1">
         <v>497</v>
       </c>
@@ -34200,7 +34251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" ht="15" customHeight="1">
       <c r="A649" s="1">
         <v>497</v>
       </c>
@@ -34247,7 +34298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" ht="15" customHeight="1">
       <c r="A650" s="1">
         <v>498</v>
       </c>
@@ -34294,7 +34345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" ht="15" customHeight="1">
       <c r="A651" s="1">
         <v>498</v>
       </c>
@@ -34341,7 +34392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" ht="15" customHeight="1">
       <c r="A652" s="1">
         <v>499</v>
       </c>
@@ -34388,7 +34439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" ht="15" customHeight="1">
       <c r="A653" s="1">
         <v>499</v>
       </c>
@@ -34435,7 +34486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" ht="15" customHeight="1">
       <c r="A654" s="1">
         <v>500</v>
       </c>
@@ -34482,7 +34533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" ht="15" customHeight="1">
       <c r="A655" s="1">
         <v>500</v>
       </c>
@@ -34529,7 +34580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" ht="15" customHeight="1">
       <c r="A656" s="1">
         <v>501</v>
       </c>
@@ -34576,7 +34627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" ht="15" customHeight="1">
       <c r="A657" s="1">
         <v>501</v>
       </c>
@@ -34623,7 +34674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" ht="15" customHeight="1">
       <c r="A658" s="1">
         <v>503</v>
       </c>
@@ -34670,7 +34721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" ht="15" customHeight="1">
       <c r="A659" s="1">
         <v>503</v>
       </c>
@@ -34717,7 +34768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" ht="15" customHeight="1">
       <c r="A660" s="1">
         <v>504</v>
       </c>
@@ -34764,7 +34815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="661" spans="1:15">
+    <row r="661" spans="1:15" ht="15" customHeight="1">
       <c r="A661" s="1">
         <v>504</v>
       </c>
@@ -34811,7 +34862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="662" spans="1:15">
+    <row r="662" spans="1:15" ht="15" customHeight="1">
       <c r="A662" s="1">
         <v>515</v>
       </c>
@@ -34858,7 +34909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15">
+    <row r="663" spans="1:15" ht="15" customHeight="1">
       <c r="A663" s="1">
         <v>515</v>
       </c>
@@ -34905,7 +34956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:15">
+    <row r="664" spans="1:15" ht="15" customHeight="1">
       <c r="A664" s="1">
         <v>516</v>
       </c>
@@ -34952,7 +35003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:15">
+    <row r="665" spans="1:15" ht="15" customHeight="1">
       <c r="A665" s="1">
         <v>516</v>
       </c>
@@ -34999,7 +35050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:15">
+    <row r="666" spans="1:15" ht="15" customHeight="1">
       <c r="A666" s="1">
         <v>518</v>
       </c>
@@ -35046,7 +35097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15">
+    <row r="667" spans="1:15" ht="15" customHeight="1">
       <c r="A667" s="1">
         <v>518</v>
       </c>
@@ -35093,7 +35144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15">
+    <row r="668" spans="1:15" ht="15" customHeight="1">
       <c r="A668" s="1">
         <v>540</v>
       </c>
@@ -35140,7 +35191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:15">
+    <row r="669" spans="1:15" ht="15" customHeight="1">
       <c r="A669" s="1">
         <v>540</v>
       </c>
@@ -35187,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:15">
+    <row r="670" spans="1:15" ht="15" customHeight="1">
       <c r="A670" s="1">
         <v>541</v>
       </c>
@@ -35234,7 +35285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:15">
+    <row r="671" spans="1:15" ht="15" customHeight="1">
       <c r="A671" s="1">
         <v>541</v>
       </c>
@@ -35281,7 +35332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15">
+    <row r="672" spans="1:15" ht="15" customHeight="1">
       <c r="A672" s="1">
         <v>542</v>
       </c>
@@ -35328,7 +35379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:15" ht="15" customHeight="1">
       <c r="A673" s="1">
         <v>542</v>
       </c>
@@ -35375,7 +35426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:15" ht="15" customHeight="1">
       <c r="A674" s="1">
         <v>571</v>
       </c>
@@ -35422,7 +35473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:15" ht="15" customHeight="1">
       <c r="A675" s="1">
         <v>571</v>
       </c>
@@ -35469,7 +35520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:15" ht="15" customHeight="1">
       <c r="A676" s="1">
         <v>579</v>
       </c>
@@ -35516,7 +35567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:15" ht="15" customHeight="1">
       <c r="A677" s="1">
         <v>579</v>
       </c>
@@ -35563,7 +35614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:15" ht="15" customHeight="1">
       <c r="A678" s="1">
         <v>581</v>
       </c>
@@ -35610,7 +35661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:15" ht="15" customHeight="1">
       <c r="A679" s="1">
         <v>581</v>
       </c>
@@ -35657,7 +35708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:15" ht="15" customHeight="1">
       <c r="A680" s="1">
         <v>582</v>
       </c>
@@ -35704,7 +35755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:15" ht="15" customHeight="1">
       <c r="A681" s="1">
         <v>582</v>
       </c>
@@ -35751,7 +35802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:15" ht="15" customHeight="1">
       <c r="A682" s="1">
         <v>594</v>
       </c>
@@ -35798,7 +35849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:15" ht="15" customHeight="1">
       <c r="A683" s="1">
         <v>594</v>
       </c>
@@ -35845,7 +35896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:15" ht="15" customHeight="1">
       <c r="A684" s="1">
         <v>627</v>
       </c>
@@ -35892,7 +35943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:15" ht="15" customHeight="1">
       <c r="A685" s="1">
         <v>627</v>
       </c>
@@ -35939,7 +35990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:15" ht="15" customHeight="1">
       <c r="A686" s="1">
         <v>630</v>
       </c>
@@ -35986,7 +36037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:15" ht="15" customHeight="1">
       <c r="A687" s="1">
         <v>630</v>
       </c>
@@ -36033,7 +36084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:15" ht="15" customHeight="1">
       <c r="A688" s="1">
         <v>631</v>
       </c>
@@ -36080,7 +36131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:26">
+    <row r="689" spans="1:26" ht="15" customHeight="1">
       <c r="A689" s="1">
         <v>631</v>
       </c>
@@ -36127,7 +36178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:26">
+    <row r="690" spans="1:26" ht="15" customHeight="1">
       <c r="A690" s="8">
         <v>634</v>
       </c>
@@ -36183,7 +36234,7 @@
       <c r="Y690" s="14"/>
       <c r="Z690" s="14"/>
     </row>
-    <row r="691" spans="1:26">
+    <row r="691" spans="1:26" ht="15" customHeight="1">
       <c r="A691" s="15">
         <v>634</v>
       </c>
@@ -36239,7 +36290,7 @@
       <c r="Y691" s="14"/>
       <c r="Z691" s="14"/>
     </row>
-    <row r="692" spans="1:26">
+    <row r="692" spans="1:26" ht="15" customHeight="1">
       <c r="A692" s="1">
         <v>635</v>
       </c>
@@ -36295,7 +36346,7 @@
       <c r="Y692" s="14"/>
       <c r="Z692" s="14"/>
     </row>
-    <row r="693" spans="1:26">
+    <row r="693" spans="1:26" ht="15" customHeight="1">
       <c r="A693" s="1">
         <v>635</v>
       </c>
@@ -36342,7 +36393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:26">
+    <row r="694" spans="1:26" ht="15" customHeight="1">
       <c r="A694" s="1">
         <v>636</v>
       </c>
@@ -36389,7 +36440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:26">
+    <row r="695" spans="1:26" ht="15" customHeight="1">
       <c r="A695" s="1">
         <v>636</v>
       </c>
@@ -36436,7 +36487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:26">
+    <row r="696" spans="1:26" ht="15" customHeight="1">
       <c r="A696" s="1">
         <v>638</v>
       </c>
@@ -36483,7 +36534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:26">
+    <row r="697" spans="1:26" ht="15" customHeight="1">
       <c r="A697" s="1">
         <v>638</v>
       </c>
@@ -36530,7 +36581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:26">
+    <row r="698" spans="1:26" ht="15" customHeight="1">
       <c r="A698" s="1">
         <v>648</v>
       </c>
@@ -36577,7 +36628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:26">
+    <row r="699" spans="1:26" ht="15" customHeight="1">
       <c r="A699" s="1">
         <v>648</v>
       </c>
@@ -36624,7 +36675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:26">
+    <row r="700" spans="1:26" ht="15" customHeight="1">
       <c r="A700" s="1">
         <v>658</v>
       </c>
@@ -36671,7 +36722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:26">
+    <row r="701" spans="1:26" ht="15" customHeight="1">
       <c r="A701" s="1">
         <v>658</v>
       </c>
@@ -36718,7 +36769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:26">
+    <row r="702" spans="1:26" ht="15" customHeight="1">
       <c r="A702" s="1">
         <v>659</v>
       </c>
@@ -36765,7 +36816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:26">
+    <row r="703" spans="1:26" ht="15" customHeight="1">
       <c r="A703" s="1">
         <v>659</v>
       </c>
@@ -36812,7 +36863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:26">
+    <row r="704" spans="1:26" ht="15" customHeight="1">
       <c r="A704" s="1">
         <v>672</v>
       </c>
@@ -36859,7 +36910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15">
+    <row r="705" spans="1:15" ht="15" customHeight="1">
       <c r="A705" s="1">
         <v>672</v>
       </c>
@@ -36906,7 +36957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:15">
+    <row r="706" spans="1:15" ht="15" customHeight="1">
       <c r="A706" s="1">
         <v>673</v>
       </c>
@@ -36953,7 +37004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15">
+    <row r="707" spans="1:15" ht="15" customHeight="1">
       <c r="A707" s="1">
         <v>673</v>
       </c>
@@ -37000,7 +37051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:15">
+    <row r="708" spans="1:15" ht="15" customHeight="1">
       <c r="A708" s="1">
         <v>674</v>
       </c>
@@ -37047,7 +37098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:15">
+    <row r="709" spans="1:15" ht="15" customHeight="1">
       <c r="A709" s="1">
         <v>674</v>
       </c>
@@ -37094,7 +37145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:15">
+    <row r="710" spans="1:15" ht="15" customHeight="1">
       <c r="A710" s="1">
         <v>675</v>
       </c>
@@ -37141,7 +37192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:15">
+    <row r="711" spans="1:15" ht="15" customHeight="1">
       <c r="A711" s="1">
         <v>675</v>
       </c>
@@ -37188,7 +37239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15">
+    <row r="712" spans="1:15" ht="15" customHeight="1">
       <c r="A712" s="1">
         <v>676</v>
       </c>
@@ -37235,7 +37286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="713" spans="1:15">
+    <row r="713" spans="1:15" ht="15" customHeight="1">
       <c r="A713" s="1">
         <v>676</v>
       </c>
@@ -37282,7 +37333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="714" spans="1:15">
+    <row r="714" spans="1:15" ht="15" customHeight="1">
       <c r="A714" s="1">
         <v>677</v>
       </c>
@@ -37329,7 +37380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15">
+    <row r="715" spans="1:15" ht="15" customHeight="1">
       <c r="A715" s="1">
         <v>677</v>
       </c>
@@ -37376,7 +37427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:15">
+    <row r="716" spans="1:15" ht="15" customHeight="1">
       <c r="A716" s="1">
         <v>758</v>
       </c>
@@ -37423,7 +37474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:15">
+    <row r="717" spans="1:15" ht="15" customHeight="1">
       <c r="A717" s="1">
         <v>758</v>
       </c>
@@ -37470,7 +37521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:15">
+    <row r="718" spans="1:15" ht="15" customHeight="1">
       <c r="A718" s="1">
         <v>759</v>
       </c>
@@ -37517,7 +37568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:15">
+    <row r="719" spans="1:15" ht="15" customHeight="1">
       <c r="A719" s="1">
         <v>759</v>
       </c>
@@ -37564,7 +37615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:15">
+    <row r="720" spans="1:15" ht="15" customHeight="1">
       <c r="A720" s="1">
         <v>760</v>
       </c>
@@ -37611,7 +37662,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="721" spans="1:15">
+    <row r="721" spans="1:15" ht="15" customHeight="1">
       <c r="A721" s="1">
         <v>760</v>
       </c>
@@ -37658,7 +37709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="722" spans="1:15">
+    <row r="722" spans="1:15" ht="15" customHeight="1">
       <c r="A722" s="1">
         <v>761</v>
       </c>
@@ -37705,7 +37756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15">
+    <row r="723" spans="1:15" ht="15" customHeight="1">
       <c r="A723" s="1">
         <v>761</v>
       </c>
@@ -37752,7 +37803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15">
+    <row r="724" spans="1:15" ht="15" customHeight="1">
       <c r="A724" s="1">
         <v>762</v>
       </c>
@@ -37799,7 +37850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:15">
+    <row r="725" spans="1:15" ht="15" customHeight="1">
       <c r="A725" s="1">
         <v>762</v>
       </c>
@@ -37846,7 +37897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:15">
+    <row r="726" spans="1:15" ht="15" customHeight="1">
       <c r="A726" s="1">
         <v>763</v>
       </c>
@@ -37893,7 +37944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15">
+    <row r="727" spans="1:15" ht="15" customHeight="1">
       <c r="A727" s="1">
         <v>763</v>
       </c>
@@ -37940,7 +37991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:15">
+    <row r="728" spans="1:15" ht="15" customHeight="1">
       <c r="A728" s="1">
         <v>764</v>
       </c>
@@ -37987,7 +38038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15">
+    <row r="729" spans="1:15" ht="15" customHeight="1">
       <c r="A729" s="1">
         <v>764</v>
       </c>
@@ -38034,7 +38085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:15">
+    <row r="730" spans="1:15" ht="15" customHeight="1">
       <c r="A730" s="1">
         <v>765</v>
       </c>
@@ -38081,7 +38132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15">
+    <row r="731" spans="1:15" ht="15" customHeight="1">
       <c r="A731" s="1">
         <v>765</v>
       </c>
@@ -38128,7 +38179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15">
+    <row r="732" spans="1:15" ht="15" customHeight="1">
       <c r="A732" s="1">
         <v>766</v>
       </c>
@@ -38175,7 +38226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:15">
+    <row r="733" spans="1:15" ht="15" customHeight="1">
       <c r="A733" s="1">
         <v>766</v>
       </c>
@@ -38222,7 +38273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:15">
+    <row r="734" spans="1:15" ht="15" customHeight="1">
       <c r="A734" s="1">
         <v>767</v>
       </c>
@@ -38269,7 +38320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:15">
+    <row r="735" spans="1:15" ht="15" customHeight="1">
       <c r="A735" s="1">
         <v>767</v>
       </c>
@@ -38316,7 +38367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:15">
+    <row r="736" spans="1:15" ht="15" customHeight="1">
       <c r="A736" s="1">
         <v>768</v>
       </c>
@@ -38363,7 +38414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:15">
+    <row r="737" spans="1:15" ht="15" customHeight="1">
       <c r="A737" s="1">
         <v>768</v>
       </c>
@@ -38410,7 +38461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:15">
+    <row r="738" spans="1:15" ht="15" customHeight="1">
       <c r="A738" s="1">
         <v>769</v>
       </c>
@@ -38457,7 +38508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15">
+    <row r="739" spans="1:15" ht="15" customHeight="1">
       <c r="A739" s="1">
         <v>769</v>
       </c>
@@ -38504,7 +38555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:15">
+    <row r="740" spans="1:15" ht="15" customHeight="1">
       <c r="A740" s="1">
         <v>770</v>
       </c>
@@ -38551,7 +38602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:15">
+    <row r="741" spans="1:15" ht="15" customHeight="1">
       <c r="A741" s="1">
         <v>770</v>
       </c>
@@ -38598,7 +38649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:15">
+    <row r="742" spans="1:15" ht="15" customHeight="1">
       <c r="A742" s="1">
         <v>772</v>
       </c>
@@ -38645,7 +38696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:15">
+    <row r="743" spans="1:15" ht="15" customHeight="1">
       <c r="A743" s="1">
         <v>772</v>
       </c>
@@ -38692,7 +38743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15">
+    <row r="744" spans="1:15" ht="15" customHeight="1">
       <c r="A744" s="1">
         <v>773</v>
       </c>
@@ -38739,7 +38790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15">
+    <row r="745" spans="1:15" ht="15" customHeight="1">
       <c r="A745" s="1">
         <v>773</v>
       </c>
@@ -38786,7 +38837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15">
+    <row r="746" spans="1:15" ht="15" customHeight="1">
       <c r="A746" s="1">
         <v>774</v>
       </c>
@@ -38833,7 +38884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:15">
+    <row r="747" spans="1:15" ht="15" customHeight="1">
       <c r="A747" s="1">
         <v>774</v>
       </c>
@@ -38880,7 +38931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15">
+    <row r="748" spans="1:15" ht="15" customHeight="1">
       <c r="A748" s="1">
         <v>775</v>
       </c>
@@ -38927,7 +38978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:15">
+    <row r="749" spans="1:15" ht="15" customHeight="1">
       <c r="A749" s="1">
         <v>775</v>
       </c>
@@ -38974,7 +39025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:15">
+    <row r="750" spans="1:15" ht="15" customHeight="1">
       <c r="A750" s="1">
         <v>776</v>
       </c>
@@ -39021,7 +39072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15">
+    <row r="751" spans="1:15" ht="15" customHeight="1">
       <c r="A751" s="1">
         <v>776</v>
       </c>
@@ -39068,7 +39119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:15">
+    <row r="752" spans="1:15" ht="15" customHeight="1">
       <c r="A752" s="1">
         <v>777</v>
       </c>
@@ -39115,7 +39166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15">
+    <row r="753" spans="1:15" ht="15" customHeight="1">
       <c r="A753" s="1">
         <v>777</v>
       </c>
@@ -39162,7 +39213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15">
+    <row r="754" spans="1:15" ht="15" customHeight="1">
       <c r="A754" s="1">
         <v>786</v>
       </c>
@@ -39209,7 +39260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:15">
+    <row r="755" spans="1:15" ht="15" customHeight="1">
       <c r="A755" s="1">
         <v>786</v>
       </c>
@@ -39256,7 +39307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:15">
+    <row r="756" spans="1:15" ht="15" customHeight="1">
       <c r="A756" s="1">
         <v>787</v>
       </c>
@@ -39303,7 +39354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15">
+    <row r="757" spans="1:15" ht="15" customHeight="1">
       <c r="A757" s="1">
         <v>787</v>
       </c>
@@ -39350,7 +39401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15">
+    <row r="758" spans="1:15" ht="15" customHeight="1">
       <c r="A758" s="1">
         <v>788</v>
       </c>
@@ -39397,7 +39448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:15">
+    <row r="759" spans="1:15" ht="15" customHeight="1">
       <c r="A759" s="1">
         <v>788</v>
       </c>
@@ -39444,7 +39495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:15">
+    <row r="760" spans="1:15" ht="15" customHeight="1">
       <c r="A760" s="1">
         <v>807</v>
       </c>
@@ -39491,7 +39542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:15">
+    <row r="761" spans="1:15" ht="15" customHeight="1">
       <c r="A761" s="1">
         <v>807</v>
       </c>
@@ -39538,7 +39589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:15">
+    <row r="762" spans="1:15" ht="15" customHeight="1">
       <c r="A762" s="1">
         <v>810</v>
       </c>
@@ -39585,7 +39636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:15">
+    <row r="763" spans="1:15" ht="15" customHeight="1">
       <c r="A763" s="1">
         <v>810</v>
       </c>
@@ -39632,7 +39683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:15">
+    <row r="764" spans="1:15" ht="15" customHeight="1">
       <c r="A764" s="1">
         <v>811</v>
       </c>
@@ -39679,7 +39730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:15">
+    <row r="765" spans="1:15" ht="15" customHeight="1">
       <c r="A765" s="1">
         <v>811</v>
       </c>
@@ -39726,7 +39777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15">
+    <row r="766" spans="1:15" ht="15" customHeight="1">
       <c r="A766" s="1">
         <v>817</v>
       </c>
@@ -39773,7 +39824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:15">
+    <row r="767" spans="1:15" ht="15" customHeight="1">
       <c r="A767" s="1">
         <v>817</v>
       </c>
@@ -39820,7 +39871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15">
+    <row r="768" spans="1:15" ht="15" customHeight="1">
       <c r="A768" s="1">
         <v>818</v>
       </c>
@@ -39867,7 +39918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15">
+    <row r="769" spans="1:15" ht="15" customHeight="1">
       <c r="A769" s="1">
         <v>818</v>
       </c>
@@ -39914,7 +39965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15">
+    <row r="770" spans="1:15" ht="15" customHeight="1">
       <c r="A770" s="1">
         <v>819</v>
       </c>
@@ -39961,7 +40012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15">
+    <row r="771" spans="1:15" ht="15" customHeight="1">
       <c r="A771" s="1">
         <v>819</v>
       </c>
@@ -40008,7 +40059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15">
+    <row r="772" spans="1:15" ht="15" customHeight="1">
       <c r="A772" s="1">
         <v>820</v>
       </c>
@@ -40055,7 +40106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15">
+    <row r="773" spans="1:15" ht="15" customHeight="1">
       <c r="A773" s="1">
         <v>820</v>
       </c>
@@ -40102,7 +40153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:15">
+    <row r="774" spans="1:15" ht="15" customHeight="1">
       <c r="A774" s="1">
         <v>821</v>
       </c>
@@ -40149,7 +40200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15">
+    <row r="775" spans="1:15" ht="15" customHeight="1">
       <c r="A775" s="1">
         <v>821</v>
       </c>
@@ -40196,7 +40247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15">
+    <row r="776" spans="1:15" ht="15" customHeight="1">
       <c r="A776" s="1">
         <v>822</v>
       </c>
@@ -40243,7 +40294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15">
+    <row r="777" spans="1:15" ht="15" customHeight="1">
       <c r="A777" s="1">
         <v>822</v>
       </c>
@@ -40290,7 +40341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:15">
+    <row r="778" spans="1:15" ht="15" customHeight="1">
       <c r="A778" s="1">
         <v>823</v>
       </c>
@@ -40337,7 +40388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:15">
+    <row r="779" spans="1:15" ht="15" customHeight="1">
       <c r="A779" s="1">
         <v>823</v>
       </c>
@@ -40384,7 +40435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:15">
+    <row r="780" spans="1:15" ht="15" customHeight="1">
       <c r="A780" s="1">
         <v>824</v>
       </c>
@@ -40431,7 +40482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:15">
+    <row r="781" spans="1:15" ht="15" customHeight="1">
       <c r="A781" s="1">
         <v>824</v>
       </c>
@@ -40478,7 +40529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15">
+    <row r="782" spans="1:15" ht="15" customHeight="1">
       <c r="A782" s="1">
         <v>825</v>
       </c>
@@ -40525,7 +40576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:15">
+    <row r="783" spans="1:15" ht="15" customHeight="1">
       <c r="A783" s="1">
         <v>825</v>
       </c>
@@ -40572,7 +40623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15">
+    <row r="784" spans="1:15" ht="15" customHeight="1">
       <c r="A784" s="1">
         <v>826</v>
       </c>
@@ -40619,7 +40670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:15">
+    <row r="785" spans="1:15" ht="15" customHeight="1">
       <c r="A785" s="1">
         <v>826</v>
       </c>
@@ -40666,7 +40717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15">
+    <row r="786" spans="1:15" ht="15" customHeight="1">
       <c r="A786" s="1">
         <v>828</v>
       </c>
@@ -40713,7 +40764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:15">
+    <row r="787" spans="1:15" ht="15" customHeight="1">
       <c r="A787" s="1">
         <v>828</v>
       </c>
@@ -40760,7 +40811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:15">
+    <row r="788" spans="1:15" ht="15" customHeight="1">
       <c r="A788" s="1">
         <v>830</v>
       </c>
@@ -40807,7 +40858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:15">
+    <row r="789" spans="1:15" ht="15" customHeight="1">
       <c r="A789" s="1">
         <v>830</v>
       </c>
@@ -40854,7 +40905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15">
+    <row r="790" spans="1:15" ht="15" customHeight="1">
       <c r="A790" s="1">
         <v>831</v>
       </c>
@@ -40901,7 +40952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15">
+    <row r="791" spans="1:15" ht="15" customHeight="1">
       <c r="A791" s="1">
         <v>831</v>
       </c>
@@ -40948,7 +40999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:15">
+    <row r="792" spans="1:15" ht="15" customHeight="1">
       <c r="A792" s="1">
         <v>832</v>
       </c>
@@ -40995,7 +41046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:15">
+    <row r="793" spans="1:15" ht="15" customHeight="1">
       <c r="A793" s="1">
         <v>832</v>
       </c>
@@ -41042,7 +41093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:15">
+    <row r="794" spans="1:15" ht="15" customHeight="1">
       <c r="A794" s="1">
         <v>833</v>
       </c>
@@ -41089,7 +41140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15">
+    <row r="795" spans="1:15" ht="15" customHeight="1">
       <c r="A795" s="1">
         <v>833</v>
       </c>
@@ -41136,7 +41187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:15">
+    <row r="796" spans="1:15" ht="15" customHeight="1">
       <c r="A796" s="1">
         <v>834</v>
       </c>
@@ -41183,7 +41234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:15">
+    <row r="797" spans="1:15" ht="15" customHeight="1">
       <c r="A797" s="1">
         <v>834</v>
       </c>
@@ -41230,7 +41281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:15">
+    <row r="798" spans="1:15" ht="15" customHeight="1">
       <c r="A798" s="1">
         <v>835</v>
       </c>
@@ -41277,7 +41328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:15">
+    <row r="799" spans="1:15" ht="15" customHeight="1">
       <c r="A799" s="1">
         <v>835</v>
       </c>
@@ -41324,7 +41375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:15">
+    <row r="800" spans="1:15" ht="15" customHeight="1">
       <c r="A800" s="1">
         <v>836</v>
       </c>
@@ -41371,7 +41422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:15">
+    <row r="801" spans="1:15" ht="15" customHeight="1">
       <c r="A801" s="1">
         <v>836</v>
       </c>
@@ -41418,7 +41469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15">
+    <row r="802" spans="1:15" ht="15" customHeight="1">
       <c r="A802" s="1">
         <v>837</v>
       </c>
@@ -41465,7 +41516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:15">
+    <row r="803" spans="1:15" ht="15" customHeight="1">
       <c r="A803" s="7">
         <v>837</v>
       </c>
@@ -41512,7 +41563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15">
+    <row r="804" spans="1:15" ht="15" customHeight="1">
       <c r="A804" s="1">
         <v>838</v>
       </c>
@@ -41559,7 +41610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15">
+    <row r="805" spans="1:15" ht="15" customHeight="1">
       <c r="A805" s="1">
         <v>838</v>
       </c>
@@ -41606,7 +41657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15">
+    <row r="806" spans="1:15" ht="15" customHeight="1">
       <c r="A806" s="1">
         <v>839</v>
       </c>
@@ -41653,7 +41704,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="807" spans="1:15">
+    <row r="807" spans="1:15" ht="15" customHeight="1">
       <c r="A807" s="1">
         <v>839</v>
       </c>
@@ -41700,7 +41751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="808" spans="1:15">
+    <row r="808" spans="1:15" ht="15" customHeight="1">
       <c r="A808" s="1">
         <v>840</v>
       </c>
@@ -41747,7 +41798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:15">
+    <row r="809" spans="1:15" ht="15" customHeight="1">
       <c r="A809" s="1">
         <v>840</v>
       </c>
@@ -41794,7 +41845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:15">
+    <row r="810" spans="1:15" ht="15" customHeight="1">
       <c r="A810" s="1">
         <v>841</v>
       </c>
@@ -41841,7 +41892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:15">
+    <row r="811" spans="1:15" ht="15" customHeight="1">
       <c r="A811" s="1">
         <v>841</v>
       </c>
@@ -41888,7 +41939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15">
+    <row r="812" spans="1:15" ht="15" customHeight="1">
       <c r="A812" s="1">
         <v>842</v>
       </c>
@@ -41935,7 +41986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:15">
+    <row r="813" spans="1:15" ht="15" customHeight="1">
       <c r="A813" s="1">
         <v>842</v>
       </c>
@@ -41982,7 +42033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:15">
+    <row r="814" spans="1:15" ht="15" customHeight="1">
       <c r="A814" s="1">
         <v>843</v>
       </c>
@@ -42029,7 +42080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:15">
+    <row r="815" spans="1:15" ht="15" customHeight="1">
       <c r="A815" s="1">
         <v>843</v>
       </c>
@@ -42076,7 +42127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15">
+    <row r="816" spans="1:15" ht="15" customHeight="1">
       <c r="A816" s="1">
         <v>844</v>
       </c>
@@ -42123,7 +42174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:15">
+    <row r="817" spans="1:15" ht="15" customHeight="1">
       <c r="A817" s="1">
         <v>844</v>
       </c>
@@ -42170,7 +42221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:15">
+    <row r="818" spans="1:15" ht="15" customHeight="1">
       <c r="A818" s="1">
         <v>845</v>
       </c>
@@ -42217,7 +42268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:15">
+    <row r="819" spans="1:15" ht="15" customHeight="1">
       <c r="A819" s="1">
         <v>845</v>
       </c>
@@ -42264,7 +42315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15">
+    <row r="820" spans="1:15" ht="15" customHeight="1">
       <c r="A820" s="1">
         <v>846</v>
       </c>
@@ -42311,7 +42362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:15">
+    <row r="821" spans="1:15" ht="15" customHeight="1">
       <c r="A821" s="1">
         <v>846</v>
       </c>
@@ -42358,7 +42409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15">
+    <row r="822" spans="1:15" ht="15" customHeight="1">
       <c r="A822" s="1">
         <v>847</v>
       </c>
@@ -42405,7 +42456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15">
+    <row r="823" spans="1:15" ht="15" customHeight="1">
       <c r="A823" s="1">
         <v>847</v>
       </c>
@@ -42452,7 +42503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:15">
+    <row r="824" spans="1:15" ht="15" customHeight="1">
       <c r="A824" s="1">
         <v>1053</v>
       </c>
@@ -42499,7 +42550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:15">
+    <row r="825" spans="1:15" ht="15" customHeight="1">
       <c r="A825" s="1">
         <v>1053</v>
       </c>
@@ -42546,7 +42597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15">
+    <row r="826" spans="1:15" ht="15" customHeight="1">
       <c r="A826" s="1">
         <v>1054</v>
       </c>
@@ -42593,7 +42644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15">
+    <row r="827" spans="1:15" ht="15" customHeight="1">
       <c r="A827" s="1">
         <v>1054</v>
       </c>
@@ -42640,7 +42691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:15">
+    <row r="828" spans="1:15" ht="15" customHeight="1">
       <c r="A828" s="1">
         <v>1541</v>
       </c>
@@ -42687,7 +42738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:15">
+    <row r="829" spans="1:15" ht="15" customHeight="1">
       <c r="A829" s="1">
         <v>1541</v>
       </c>
@@ -42734,7 +42785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15">
+    <row r="830" spans="1:15" ht="15" customHeight="1">
       <c r="A830" s="1">
         <v>1542</v>
       </c>
@@ -42781,7 +42832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:15">
+    <row r="831" spans="1:15" ht="15" customHeight="1">
       <c r="A831" s="1">
         <v>1542</v>
       </c>
@@ -42828,7 +42879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:15">
+    <row r="832" spans="1:15" ht="15" customHeight="1">
       <c r="A832" s="1">
         <v>1543</v>
       </c>
@@ -42875,7 +42926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15">
+    <row r="833" spans="1:15" ht="15" customHeight="1">
       <c r="A833" s="1">
         <v>1543</v>
       </c>
@@ -42922,7 +42973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15">
+    <row r="834" spans="1:15" ht="15" customHeight="1">
       <c r="A834" s="1">
         <v>1544</v>
       </c>
@@ -42969,7 +43020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:15">
+    <row r="835" spans="1:15" ht="15" customHeight="1">
       <c r="A835" s="1">
         <v>1544</v>
       </c>
@@ -43016,7 +43067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:15">
+    <row r="836" spans="1:15" ht="15" customHeight="1">
       <c r="A836" s="1">
         <v>1545</v>
       </c>
@@ -43063,7 +43114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:15">
+    <row r="837" spans="1:15" ht="15" customHeight="1">
       <c r="A837" s="1">
         <v>1545</v>
       </c>
@@ -43110,7 +43161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15">
+    <row r="838" spans="1:15" ht="15" customHeight="1">
       <c r="A838" s="1">
         <v>1546</v>
       </c>
@@ -43157,7 +43208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:15">
+    <row r="839" spans="1:15" ht="15" customHeight="1">
       <c r="A839" s="1">
         <v>1546</v>
       </c>
@@ -43204,7 +43255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:15">
+    <row r="840" spans="1:15" ht="15" customHeight="1">
       <c r="A840" s="1">
         <v>1654</v>
       </c>
@@ -43251,7 +43302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:15">
+    <row r="841" spans="1:15" ht="15" customHeight="1">
       <c r="A841" s="1">
         <v>1654</v>
       </c>
@@ -43298,7 +43349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:15">
+    <row r="842" spans="1:15" ht="15" customHeight="1">
       <c r="A842" s="1">
         <v>1655</v>
       </c>
@@ -43345,7 +43396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:15">
+    <row r="843" spans="1:15" ht="15" customHeight="1">
       <c r="A843" s="1">
         <v>1655</v>
       </c>
@@ -43392,7 +43443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:15">
+    <row r="844" spans="1:15" ht="15" customHeight="1">
       <c r="A844" s="1">
         <v>1790</v>
       </c>
@@ -43439,7 +43490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:15">
+    <row r="845" spans="1:15" ht="15" customHeight="1">
       <c r="A845" s="1">
         <v>1790</v>
       </c>
@@ -43486,7 +43537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:15">
+    <row r="846" spans="1:15" ht="15" customHeight="1">
       <c r="A846" s="1">
         <v>1808</v>
       </c>
@@ -43533,7 +43584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:15">
+    <row r="847" spans="1:15" ht="15" customHeight="1">
       <c r="A847" s="1">
         <v>1808</v>
       </c>
@@ -43580,7 +43631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:15">
+    <row r="848" spans="1:15" ht="15" customHeight="1">
       <c r="A848" s="1">
         <v>1809</v>
       </c>
@@ -43627,7 +43678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:15">
+    <row r="849" spans="1:15" ht="15" customHeight="1">
       <c r="A849" s="1">
         <v>1809</v>
       </c>
@@ -43674,7 +43725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:15">
+    <row r="850" spans="1:15" ht="15" customHeight="1">
       <c r="A850" s="1">
         <v>1816</v>
       </c>
@@ -43721,7 +43772,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="851" spans="1:15">
+    <row r="851" spans="1:15" ht="15" customHeight="1">
       <c r="A851" s="1">
         <v>1816</v>
       </c>
@@ -43768,7 +43819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15">
+    <row r="852" spans="1:15" ht="15" customHeight="1">
       <c r="A852" s="1">
         <v>1862</v>
       </c>
@@ -43815,7 +43866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15">
+    <row r="853" spans="1:15" ht="15" customHeight="1">
       <c r="A853" s="1">
         <v>1862</v>
       </c>
@@ -43862,7 +43913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:15">
+    <row r="854" spans="1:15" ht="15" customHeight="1">
       <c r="A854" s="1">
         <v>1863</v>
       </c>
@@ -43909,7 +43960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15">
+    <row r="855" spans="1:15" ht="15" customHeight="1">
       <c r="A855" s="1">
         <v>1863</v>
       </c>
@@ -43956,7 +44007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15">
+    <row r="856" spans="1:15" ht="15" customHeight="1">
       <c r="A856" s="1">
         <v>1864</v>
       </c>
@@ -44003,7 +44054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15">
+    <row r="857" spans="1:15" ht="15" customHeight="1">
       <c r="A857" s="1">
         <v>1864</v>
       </c>
@@ -44050,7 +44101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15">
+    <row r="858" spans="1:15" ht="15" customHeight="1">
       <c r="A858" s="1">
         <v>1869</v>
       </c>
@@ -44097,7 +44148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15">
+    <row r="859" spans="1:15" ht="15" customHeight="1">
       <c r="A859" s="1">
         <v>1869</v>
       </c>
@@ -44144,7 +44195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:15">
+    <row r="860" spans="1:15" ht="15" customHeight="1">
       <c r="A860" s="1">
         <v>1870</v>
       </c>
@@ -44191,7 +44242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15">
+    <row r="861" spans="1:15" ht="15" customHeight="1">
       <c r="A861" s="1">
         <v>1870</v>
       </c>
@@ -44238,7 +44289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:15">
+    <row r="862" spans="1:15" ht="15" customHeight="1">
       <c r="A862" s="1">
         <v>1871</v>
       </c>
@@ -44285,7 +44336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15">
+    <row r="863" spans="1:15" ht="15" customHeight="1">
       <c r="A863" s="1">
         <v>1871</v>
       </c>
@@ -44332,7 +44383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15">
+    <row r="864" spans="1:15" ht="15" customHeight="1">
       <c r="A864" s="1">
         <v>1872</v>
       </c>
@@ -44379,7 +44430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:15">
+    <row r="865" spans="1:15" ht="15" customHeight="1">
       <c r="A865" s="1">
         <v>1872</v>
       </c>
@@ -44426,7 +44477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15">
+    <row r="866" spans="1:15" ht="15" customHeight="1">
       <c r="A866" s="1">
         <v>1873</v>
       </c>
@@ -44473,7 +44524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:15">
+    <row r="867" spans="1:15" ht="15" customHeight="1">
       <c r="A867" s="1">
         <v>1873</v>
       </c>
@@ -44520,7 +44571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:15">
+    <row r="868" spans="1:15" ht="15" customHeight="1">
       <c r="A868" s="1">
         <v>1874</v>
       </c>
@@ -44567,7 +44618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15">
+    <row r="869" spans="1:15" ht="15" customHeight="1">
       <c r="A869" s="1">
         <v>1874</v>
       </c>
@@ -44614,7 +44665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:15">
+    <row r="870" spans="1:15" ht="15" customHeight="1">
       <c r="A870" s="1">
         <v>1875</v>
       </c>
@@ -44661,7 +44712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:15">
+    <row r="871" spans="1:15" ht="15" customHeight="1">
       <c r="A871" s="1">
         <v>1875</v>
       </c>
@@ -44708,7 +44759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15">
+    <row r="872" spans="1:15" ht="15" customHeight="1">
       <c r="A872" s="1">
         <v>1876</v>
       </c>
@@ -44755,7 +44806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:15">
+    <row r="873" spans="1:15" ht="15" customHeight="1">
       <c r="A873" s="1">
         <v>1876</v>
       </c>
@@ -44802,7 +44853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15">
+    <row r="874" spans="1:15" ht="15" customHeight="1">
       <c r="A874" s="1">
         <v>1877</v>
       </c>
@@ -44849,7 +44900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:15">
+    <row r="875" spans="1:15" ht="15" customHeight="1">
       <c r="A875" s="1">
         <v>1877</v>
       </c>
@@ -44896,7 +44947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:15">
+    <row r="876" spans="1:15" ht="15" customHeight="1">
       <c r="A876" s="1">
         <v>1878</v>
       </c>
@@ -44943,7 +44994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15">
+    <row r="877" spans="1:15" ht="15" customHeight="1">
       <c r="A877" s="1">
         <v>1878</v>
       </c>
@@ -44990,7 +45041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:15">
+    <row r="878" spans="1:15" ht="15" customHeight="1">
       <c r="A878" s="1">
         <v>1879</v>
       </c>
@@ -45037,7 +45088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:15">
+    <row r="879" spans="1:15" ht="15" customHeight="1">
       <c r="A879" s="1">
         <v>1879</v>
       </c>
@@ -45084,7 +45135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:15">
+    <row r="880" spans="1:15" ht="15" customHeight="1">
       <c r="A880" s="1">
         <v>1880</v>
       </c>
@@ -45131,7 +45182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="881" spans="1:15">
+    <row r="881" spans="1:15" ht="15" customHeight="1">
       <c r="A881" s="1">
         <v>1880</v>
       </c>
@@ -45178,7 +45229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="882" spans="1:15">
+    <row r="882" spans="1:15" ht="15" customHeight="1">
       <c r="A882" s="1">
         <v>1881</v>
       </c>
@@ -45225,7 +45276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:15">
+    <row r="883" spans="1:15" ht="15" customHeight="1">
       <c r="A883" s="1">
         <v>1881</v>
       </c>
@@ -45272,7 +45323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:15">
+    <row r="884" spans="1:15" ht="15" customHeight="1">
       <c r="A884" s="1">
         <v>1882</v>
       </c>
@@ -45319,7 +45370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:15">
+    <row r="885" spans="1:15" ht="15" customHeight="1">
       <c r="A885" s="1">
         <v>1882</v>
       </c>
@@ -45366,7 +45417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:15">
+    <row r="886" spans="1:15" ht="15" customHeight="1">
       <c r="A886" s="1">
         <v>1883</v>
       </c>
@@ -45413,7 +45464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:15">
+    <row r="887" spans="1:15" ht="15" customHeight="1">
       <c r="A887" s="1">
         <v>1883</v>
       </c>
@@ -45460,7 +45511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15">
+    <row r="888" spans="1:15" ht="15" customHeight="1">
       <c r="A888" s="1">
         <v>1884</v>
       </c>
@@ -45507,7 +45558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:15">
+    <row r="889" spans="1:15" ht="15" customHeight="1">
       <c r="A889" s="1">
         <v>1884</v>
       </c>
@@ -45554,7 +45605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:15">
+    <row r="890" spans="1:15" ht="15" customHeight="1">
       <c r="A890" s="1">
         <v>1885</v>
       </c>
@@ -45601,7 +45652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15">
+    <row r="891" spans="1:15" ht="15" customHeight="1">
       <c r="A891" s="1">
         <v>1885</v>
       </c>
@@ -45648,7 +45699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:15">
+    <row r="892" spans="1:15" ht="15" customHeight="1">
       <c r="A892" s="1">
         <v>1886</v>
       </c>
@@ -45695,7 +45746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:15">
+    <row r="893" spans="1:15" ht="15" customHeight="1">
       <c r="A893" s="1">
         <v>1886</v>
       </c>
@@ -45742,7 +45793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:15">
+    <row r="894" spans="1:15" ht="15" customHeight="1">
       <c r="A894" s="1">
         <v>1887</v>
       </c>
@@ -45789,7 +45840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:15">
+    <row r="895" spans="1:15" ht="15" customHeight="1">
       <c r="A895" s="1">
         <v>1887</v>
       </c>
@@ -45836,7 +45887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:15">
+    <row r="896" spans="1:15" ht="15" customHeight="1">
       <c r="A896" s="1">
         <v>1888</v>
       </c>
@@ -45883,7 +45934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:15">
+    <row r="897" spans="1:15" ht="15" customHeight="1">
       <c r="A897" s="1">
         <v>1888</v>
       </c>
@@ -45930,7 +45981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:15">
+    <row r="898" spans="1:15" ht="15" customHeight="1">
       <c r="A898" s="1">
         <v>1889</v>
       </c>
@@ -45977,7 +46028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:15">
+    <row r="899" spans="1:15" ht="15" customHeight="1">
       <c r="A899" s="1">
         <v>1889</v>
       </c>
@@ -46024,7 +46075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:15">
+    <row r="900" spans="1:15" ht="15" customHeight="1">
       <c r="A900" s="1">
         <v>1890</v>
       </c>
@@ -46071,7 +46122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:15">
+    <row r="901" spans="1:15" ht="15" customHeight="1">
       <c r="A901" s="1">
         <v>1890</v>
       </c>
@@ -46118,7 +46169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:15">
+    <row r="902" spans="1:15" ht="15" customHeight="1">
       <c r="A902" s="1">
         <v>1891</v>
       </c>
@@ -46165,7 +46216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:15">
+    <row r="903" spans="1:15" ht="15" customHeight="1">
       <c r="A903" s="1">
         <v>1891</v>
       </c>
@@ -46212,7 +46263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:15">
+    <row r="904" spans="1:15" ht="15" customHeight="1">
       <c r="A904" s="1">
         <v>1892</v>
       </c>
@@ -46259,7 +46310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:15">
+    <row r="905" spans="1:15" ht="15" customHeight="1">
       <c r="A905" s="1">
         <v>1892</v>
       </c>
@@ -46306,7 +46357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:15">
+    <row r="906" spans="1:15" ht="15" customHeight="1">
       <c r="A906" s="1">
         <v>1893</v>
       </c>
@@ -46353,7 +46404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:15">
+    <row r="907" spans="1:15" ht="15" customHeight="1">
       <c r="A907" s="1">
         <v>1893</v>
       </c>
@@ -46400,7 +46451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:15">
+    <row r="908" spans="1:15" ht="15" customHeight="1">
       <c r="A908" s="1">
         <v>1895</v>
       </c>
@@ -46447,7 +46498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:15">
+    <row r="909" spans="1:15" ht="15" customHeight="1">
       <c r="A909" s="1">
         <v>1895</v>
       </c>
@@ -46494,7 +46545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:15">
+    <row r="910" spans="1:15" ht="15" customHeight="1">
       <c r="A910" s="1">
         <v>1896</v>
       </c>
@@ -46541,7 +46592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:15">
+    <row r="911" spans="1:15" ht="15" customHeight="1">
       <c r="A911" s="1">
         <v>1896</v>
       </c>
@@ -46588,7 +46639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:15">
+    <row r="912" spans="1:15" ht="15" customHeight="1">
       <c r="A912" s="1">
         <v>1897</v>
       </c>
@@ -46635,7 +46686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:26">
+    <row r="913" spans="1:26" ht="15" customHeight="1">
       <c r="A913" s="1">
         <v>1897</v>
       </c>
@@ -46682,7 +46733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:26">
+    <row r="914" spans="1:26" ht="15" customHeight="1">
       <c r="A914" s="1">
         <v>1899</v>
       </c>
@@ -46729,7 +46780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:26">
+    <row r="915" spans="1:26" ht="15" customHeight="1">
       <c r="A915" s="1">
         <v>1899</v>
       </c>
@@ -46776,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:26">
+    <row r="916" spans="1:26" ht="15" customHeight="1">
       <c r="A916" s="1">
         <v>1900</v>
       </c>
@@ -46823,7 +46874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:26">
+    <row r="917" spans="1:26" ht="15" customHeight="1">
       <c r="A917" s="1">
         <v>1900</v>
       </c>
@@ -46870,7 +46921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:26">
+    <row r="918" spans="1:26" ht="15" customHeight="1">
       <c r="A918" s="8">
         <v>1901</v>
       </c>
@@ -46926,7 +46977,7 @@
       <c r="Y918" s="8"/>
       <c r="Z918" s="8"/>
     </row>
-    <row r="919" spans="1:26">
+    <row r="919" spans="1:26" ht="15" customHeight="1">
       <c r="A919" s="8">
         <v>1901</v>
       </c>
@@ -46982,7 +47033,7 @@
       <c r="Y919" s="8"/>
       <c r="Z919" s="8"/>
     </row>
-    <row r="920" spans="1:26">
+    <row r="920" spans="1:26" ht="15" customHeight="1">
       <c r="A920" s="1">
         <v>1902</v>
       </c>
@@ -47029,7 +47080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:26">
+    <row r="921" spans="1:26" ht="15" customHeight="1">
       <c r="A921" s="1">
         <v>1902</v>
       </c>
@@ -47076,7 +47127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:26">
+    <row r="922" spans="1:26" ht="15" customHeight="1">
       <c r="A922" s="1">
         <v>1904</v>
       </c>
@@ -47123,7 +47174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:26">
+    <row r="923" spans="1:26" ht="15" customHeight="1">
       <c r="A923" s="1">
         <v>1904</v>
       </c>
@@ -47170,7 +47221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:26">
+    <row r="924" spans="1:26" ht="15" customHeight="1">
       <c r="A924" s="1">
         <v>1905</v>
       </c>
@@ -47217,7 +47268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:26">
+    <row r="925" spans="1:26" ht="15" customHeight="1">
       <c r="A925" s="1">
         <v>1905</v>
       </c>
@@ -47264,7 +47315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:26">
+    <row r="926" spans="1:26" ht="15" customHeight="1">
       <c r="A926" s="1">
         <v>1906</v>
       </c>
@@ -47311,7 +47362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:26">
+    <row r="927" spans="1:26" ht="15" customHeight="1">
       <c r="A927" s="1">
         <v>1906</v>
       </c>
@@ -47358,7 +47409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:26">
+    <row r="928" spans="1:26" ht="15" customHeight="1">
       <c r="A928" s="1">
         <v>1908</v>
       </c>
@@ -47405,7 +47456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:26">
+    <row r="929" spans="1:26" ht="15" customHeight="1">
       <c r="A929" s="1">
         <v>1908</v>
       </c>
@@ -47452,7 +47503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:26">
+    <row r="930" spans="1:26" ht="15" customHeight="1">
       <c r="A930" s="8" t="s">
         <v>572</v>
       </c>
@@ -47506,7 +47557,7 @@
       <c r="Y930" s="8"/>
       <c r="Z930" s="8"/>
     </row>
-    <row r="931" spans="1:26">
+    <row r="931" spans="1:26" ht="15" customHeight="1">
       <c r="A931" s="8" t="s">
         <v>572</v>
       </c>
@@ -47562,7 +47613,7 @@
       <c r="Y931" s="8"/>
       <c r="Z931" s="8"/>
     </row>
-    <row r="932" spans="1:26">
+    <row r="932" spans="1:26" ht="15" customHeight="1">
       <c r="A932" s="1" t="s">
         <v>574</v>
       </c>
@@ -47609,7 +47660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:26">
+    <row r="933" spans="1:26" ht="15" customHeight="1">
       <c r="A933" s="1" t="s">
         <v>574</v>
       </c>
@@ -47656,7 +47707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:26">
+    <row r="934" spans="1:26" ht="15" customHeight="1">
       <c r="A934" s="1" t="s">
         <v>576</v>
       </c>
@@ -47703,7 +47754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:26">
+    <row r="935" spans="1:26" ht="15" customHeight="1">
       <c r="A935" s="1" t="s">
         <v>576</v>
       </c>
@@ -47750,7 +47801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:26">
+    <row r="936" spans="1:26" ht="15" customHeight="1">
       <c r="A936" s="1" t="s">
         <v>579</v>
       </c>
@@ -47797,7 +47848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:26">
+    <row r="937" spans="1:26" ht="15" customHeight="1">
       <c r="A937" s="1" t="s">
         <v>579</v>
       </c>
@@ -47844,7 +47895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:26">
+    <row r="938" spans="1:26" ht="15" customHeight="1">
       <c r="A938" s="1" t="s">
         <v>581</v>
       </c>
@@ -47891,7 +47942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:26">
+    <row r="939" spans="1:26" ht="15" customHeight="1">
       <c r="A939" s="1" t="s">
         <v>581</v>
       </c>
@@ -47938,7 +47989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:26">
+    <row r="940" spans="1:26" ht="15" customHeight="1">
       <c r="A940" s="1" t="s">
         <v>583</v>
       </c>
@@ -47985,7 +48036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:26">
+    <row r="941" spans="1:26" ht="15" customHeight="1">
       <c r="A941" s="1" t="s">
         <v>583</v>
       </c>
@@ -48032,7 +48083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:26">
+    <row r="942" spans="1:26" ht="15" customHeight="1">
       <c r="A942" s="1" t="s">
         <v>586</v>
       </c>
@@ -48079,7 +48130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:26">
+    <row r="943" spans="1:26" ht="15" customHeight="1">
       <c r="A943" s="1" t="s">
         <v>586</v>
       </c>
@@ -48126,7 +48177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:26">
+    <row r="944" spans="1:26" ht="15" customHeight="1">
       <c r="A944" s="1" t="s">
         <v>589</v>
       </c>
@@ -48173,7 +48224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:15">
+    <row r="945" spans="1:15" ht="15" customHeight="1">
       <c r="A945" s="1" t="s">
         <v>589</v>
       </c>
@@ -48220,7 +48271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:15">
+    <row r="946" spans="1:15" ht="15" customHeight="1">
       <c r="A946" s="1" t="s">
         <v>592</v>
       </c>
@@ -48267,7 +48318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:15">
+    <row r="947" spans="1:15" ht="15" customHeight="1">
       <c r="A947" s="1" t="s">
         <v>592</v>
       </c>
@@ -48314,7 +48365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:15">
+    <row r="948" spans="1:15" ht="15" customHeight="1">
       <c r="A948" s="1" t="s">
         <v>595</v>
       </c>
@@ -48361,7 +48412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:15">
+    <row r="949" spans="1:15" ht="15" customHeight="1">
       <c r="A949" s="1" t="s">
         <v>595</v>
       </c>
@@ -48408,7 +48459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:15">
+    <row r="950" spans="1:15" ht="15" customHeight="1">
       <c r="A950" s="1" t="s">
         <v>597</v>
       </c>
@@ -48455,7 +48506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:15">
+    <row r="951" spans="1:15" ht="15" customHeight="1">
       <c r="A951" s="1" t="s">
         <v>597</v>
       </c>
@@ -48502,7 +48553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:15">
+    <row r="952" spans="1:15" ht="15" customHeight="1">
       <c r="A952" s="1" t="s">
         <v>600</v>
       </c>
@@ -48549,7 +48600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:15">
+    <row r="953" spans="1:15" ht="15" customHeight="1">
       <c r="A953" s="1" t="s">
         <v>600</v>
       </c>
@@ -48596,11 +48647,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:15">
+    <row r="954" spans="1:15" ht="15" customHeight="1">
       <c r="N954" s="1"/>
       <c r="O954" s="1"/>
     </row>
-    <row r="955" spans="1:15">
+    <row r="955" spans="1:15" ht="15" customHeight="1">
       <c r="N955" s="1"/>
       <c r="O955" s="1"/>
     </row>
